--- a/BackTest/2019-10-26 BackTest VET.xlsx
+++ b/BackTest/2019-10-26 BackTest VET.xlsx
@@ -451,17 +451,13 @@
         <v>3.909999999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.91</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>3.909999999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>3.909999999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>3.909999999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.91</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>3.909999999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>3.911999999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>3.917999999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>3.923999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>3.923999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>3.927999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>3.929999999999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>3.927999999999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -965,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1047,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1170,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1252,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1293,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1375,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1416,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1457,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1498,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1539,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1580,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1621,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1662,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1703,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1744,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1785,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1826,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1867,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1908,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1949,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1990,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2031,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2072,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2113,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2154,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2195,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2236,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2277,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2315,19 +2029,13 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>1.046150895140665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2461,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2496,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2531,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2566,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2601,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2636,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2671,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2706,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2846,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2916,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2951,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -8758,17 +8466,13 @@
         <v>3.86</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="K231" t="n">
-        <v>3.83</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
@@ -8797,108 +8501,96 @@
         <v>3.846</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K232" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D233" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="F233" t="n">
+        <v>479437.1774</v>
+      </c>
+      <c r="G233" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K233" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D234" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E234" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="F234" t="n">
+        <v>633723.3842</v>
+      </c>
+      <c r="G234" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K234" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="C233" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="D233" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="E233" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="F233" t="n">
-        <v>479437.1774</v>
-      </c>
-      <c r="G233" t="n">
-        <v>3.834</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K233" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="C234" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D234" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="E234" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="F234" t="n">
-        <v>633723.3842</v>
-      </c>
-      <c r="G234" t="n">
-        <v>3.834</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K234" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8932,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="K235" t="n">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -8975,10 +8667,10 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="K236" t="n">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9018,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="K237" t="n">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9064,7 +8756,7 @@
         <v>3.85</v>
       </c>
       <c r="K238" t="n">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest VET.xlsx
+++ b/BackTest/2019-10-26 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>3.91</v>
       </c>
       <c r="F2" t="n">
-        <v>137055.2876723785</v>
+        <v>12789.0025</v>
       </c>
       <c r="G2" t="n">
-        <v>3.909999999999998</v>
+        <v>3.888999999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>3.91</v>
       </c>
       <c r="F3" t="n">
-        <v>144274.6355276215</v>
+        <v>137055.2876723785</v>
       </c>
       <c r="G3" t="n">
-        <v>3.909999999999998</v>
+        <v>3.890166666666664</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>3.91</v>
       </c>
       <c r="F4" t="n">
-        <v>17500.2309</v>
+        <v>144274.6355276215</v>
       </c>
       <c r="G4" t="n">
-        <v>3.909999999999998</v>
+        <v>3.890999999999997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>3.91</v>
       </c>
       <c r="F5" t="n">
-        <v>13627.7623</v>
+        <v>17500.2309</v>
       </c>
       <c r="G5" t="n">
-        <v>3.909999999999998</v>
+        <v>3.891999999999997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>3.91</v>
       </c>
       <c r="F6" t="n">
-        <v>52506.3938</v>
+        <v>13627.7623</v>
       </c>
       <c r="G6" t="n">
-        <v>3.909999999999998</v>
+        <v>3.892499999999997</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>3.91</v>
       </c>
       <c r="C7" t="n">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
       <c r="D7" t="n">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
       <c r="E7" t="n">
         <v>3.91</v>
       </c>
       <c r="F7" t="n">
-        <v>145487</v>
+        <v>52506.3938</v>
       </c>
       <c r="G7" t="n">
-        <v>3.911999999999998</v>
+        <v>3.892999999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>3.91</v>
       </c>
       <c r="C8" t="n">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="D8" t="n">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="E8" t="n">
         <v>3.91</v>
       </c>
       <c r="F8" t="n">
-        <v>349000</v>
+        <v>145487</v>
       </c>
       <c r="G8" t="n">
-        <v>3.917999999999998</v>
+        <v>3.893666666666664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="C9" t="n">
         <v>3.94</v>
@@ -687,13 +687,13 @@
         <v>3.94</v>
       </c>
       <c r="E9" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="F9" t="n">
-        <v>8850.7106</v>
+        <v>349000</v>
       </c>
       <c r="G9" t="n">
-        <v>3.923999999999999</v>
+        <v>3.894166666666664</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.91</v>
+        <v>3.94</v>
       </c>
       <c r="C10" t="n">
-        <v>3.91</v>
+        <v>3.94</v>
       </c>
       <c r="D10" t="n">
-        <v>3.91</v>
+        <v>3.94</v>
       </c>
       <c r="E10" t="n">
-        <v>3.91</v>
+        <v>3.94</v>
       </c>
       <c r="F10" t="n">
-        <v>10974.1739</v>
+        <v>8850.7106</v>
       </c>
       <c r="G10" t="n">
-        <v>3.923999999999999</v>
+        <v>3.894666666666664</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="C11" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="D11" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="E11" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="F11" t="n">
-        <v>27867.5211</v>
+        <v>10974.1739</v>
       </c>
       <c r="G11" t="n">
-        <v>3.927999999999999</v>
+        <v>3.894999999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>3.93</v>
       </c>
       <c r="F12" t="n">
-        <v>113977.0081</v>
+        <v>27867.5211</v>
       </c>
       <c r="G12" t="n">
-        <v>3.929999999999998</v>
+        <v>3.895666666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>3.93</v>
       </c>
       <c r="F13" t="n">
-        <v>77380.2458</v>
+        <v>113977.0081</v>
       </c>
       <c r="G13" t="n">
-        <v>3.927999999999998</v>
+        <v>3.896333333333331</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="C14" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="D14" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="E14" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="F14" t="n">
-        <v>9907.2086</v>
+        <v>77380.2458</v>
       </c>
       <c r="G14" t="n">
-        <v>3.923999999999997</v>
+        <v>3.896999999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>3.92</v>
       </c>
       <c r="C15" t="n">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
       <c r="D15" t="n">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
       <c r="E15" t="n">
         <v>3.92</v>
       </c>
       <c r="F15" t="n">
-        <v>490735</v>
+        <v>9907.2086</v>
       </c>
       <c r="G15" t="n">
-        <v>3.931999999999997</v>
+        <v>3.897833333333331</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
       <c r="C16" t="n">
         <v>3.95</v>
@@ -932,13 +932,13 @@
         <v>3.95</v>
       </c>
       <c r="E16" t="n">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
       <c r="F16" t="n">
-        <v>153880</v>
+        <v>490735</v>
       </c>
       <c r="G16" t="n">
-        <v>3.935999999999997</v>
+        <v>3.899166666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>3.95</v>
       </c>
       <c r="C17" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="D17" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="E17" t="n">
         <v>3.95</v>
       </c>
       <c r="F17" t="n">
-        <v>209530.9446</v>
+        <v>153880</v>
       </c>
       <c r="G17" t="n">
-        <v>3.941999999999998</v>
+        <v>3.900333333333331</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="C18" t="n">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="D18" t="n">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="E18" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="F18" t="n">
-        <v>312956.1082</v>
+        <v>209530.9446</v>
       </c>
       <c r="G18" t="n">
-        <v>3.949999999999997</v>
+        <v>3.901666666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C19" t="n">
         <v>3.97</v>
       </c>
-      <c r="C19" t="n">
-        <v>3.98</v>
-      </c>
       <c r="D19" t="n">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="E19" t="n">
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
       <c r="F19" t="n">
-        <v>477099</v>
+        <v>312956.1082</v>
       </c>
       <c r="G19" t="n">
-        <v>3.961999999999998</v>
+        <v>3.903166666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C20" t="n">
         <v>3.98</v>
       </c>
-      <c r="C20" t="n">
-        <v>3.99</v>
-      </c>
       <c r="D20" t="n">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="E20" t="n">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="F20" t="n">
-        <v>2464316.0763</v>
+        <v>477099</v>
       </c>
       <c r="G20" t="n">
-        <v>3.969999999999998</v>
+        <v>3.904333333333331</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C21" t="n">
         <v>3.99</v>
       </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="E21" t="n">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="F21" t="n">
-        <v>1350961.9504</v>
+        <v>2464316.0763</v>
       </c>
       <c r="G21" t="n">
-        <v>3.979999999999998</v>
+        <v>3.905499999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.01</v>
+        <v>3.99</v>
       </c>
       <c r="C22" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>4.01</v>
+        <v>3.99</v>
       </c>
       <c r="F22" t="n">
-        <v>601412.9342587065</v>
+        <v>1350961.9504</v>
       </c>
       <c r="G22" t="n">
-        <v>3.991999999999998</v>
+        <v>3.907499999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,28 +1168,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="C23" t="n">
         <v>4.02</v>
       </c>
-      <c r="C23" t="n">
-        <v>4.03</v>
-      </c>
       <c r="D23" t="n">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="E23" t="n">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
       <c r="F23" t="n">
-        <v>415713.1258412935</v>
+        <v>601412.9342587065</v>
       </c>
       <c r="G23" t="n">
-        <v>4.003999999999999</v>
+        <v>3.909833333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,28 +1203,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="C24" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="D24" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="E24" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="F24" t="n">
-        <v>184794.6305</v>
+        <v>415713.1258412935</v>
       </c>
       <c r="G24" t="n">
-        <v>4.019999999999998</v>
+        <v>3.911499999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="C25" t="n">
         <v>4.06</v>
@@ -1247,13 +1247,13 @@
         <v>4.06</v>
       </c>
       <c r="E25" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F25" t="n">
-        <v>660114.8768</v>
+        <v>184794.6305</v>
       </c>
       <c r="G25" t="n">
-        <v>4.033999999999997</v>
+        <v>3.913666666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.01</v>
+        <v>4.06</v>
       </c>
       <c r="C26" t="n">
         <v>4.06</v>
@@ -1282,13 +1282,13 @@
         <v>4.06</v>
       </c>
       <c r="E26" t="n">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="F26" t="n">
-        <v>489788.3618</v>
+        <v>660114.8768</v>
       </c>
       <c r="G26" t="n">
-        <v>4.045999999999998</v>
+        <v>3.916166666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.04</v>
+        <v>4.01</v>
       </c>
       <c r="C27" t="n">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="D27" t="n">
         <v>4.06</v>
       </c>
       <c r="E27" t="n">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
       <c r="F27" t="n">
-        <v>85918</v>
+        <v>489788.3618</v>
       </c>
       <c r="G27" t="n">
-        <v>4.045999999999998</v>
+        <v>3.919333333333332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C28" t="n">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="D28" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E28" t="n">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="F28" t="n">
-        <v>19235</v>
+        <v>85918</v>
       </c>
       <c r="G28" t="n">
-        <v>4.049999999999997</v>
+        <v>3.921666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="C29" t="n">
         <v>4.05</v>
@@ -1387,13 +1387,13 @@
         <v>4.05</v>
       </c>
       <c r="E29" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="F29" t="n">
-        <v>49097.5</v>
+        <v>19235</v>
       </c>
       <c r="G29" t="n">
-        <v>4.047999999999997</v>
+        <v>3.924666666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="C30" t="n">
         <v>4.05</v>
@@ -1422,13 +1422,13 @@
         <v>4.05</v>
       </c>
       <c r="E30" t="n">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="F30" t="n">
-        <v>19235</v>
+        <v>49097.5</v>
       </c>
       <c r="G30" t="n">
-        <v>4.045999999999998</v>
+        <v>3.927333333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>4.05</v>
       </c>
       <c r="F31" t="n">
-        <v>13812.4733</v>
+        <v>19235</v>
       </c>
       <c r="G31" t="n">
-        <v>4.043999999999999</v>
+        <v>3.930333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>4.05</v>
       </c>
       <c r="F32" t="n">
-        <v>301666.0054</v>
+        <v>13812.4733</v>
       </c>
       <c r="G32" t="n">
-        <v>4.049999999999999</v>
+        <v>3.933166666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>4.05</v>
       </c>
       <c r="C33" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D33" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E33" t="n">
         <v>4.05</v>
       </c>
       <c r="F33" t="n">
-        <v>57203.0366</v>
+        <v>301666.0054</v>
       </c>
       <c r="G33" t="n">
-        <v>4.051999999999998</v>
+        <v>3.936</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>4.05</v>
       </c>
       <c r="C34" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D34" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E34" t="n">
         <v>4.05</v>
       </c>
       <c r="F34" t="n">
-        <v>10400.5791</v>
+        <v>57203.0366</v>
       </c>
       <c r="G34" t="n">
-        <v>4.051999999999998</v>
+        <v>3.9395</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C35" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D35" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E35" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="F35" t="n">
-        <v>21529.8894</v>
+        <v>10400.5791</v>
       </c>
       <c r="G35" t="n">
-        <v>4.049999999999998</v>
+        <v>3.942166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C36" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D36" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="E36" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F36" t="n">
-        <v>255763.0541</v>
+        <v>21529.8894</v>
       </c>
       <c r="G36" t="n">
-        <v>4.051999999999998</v>
+        <v>3.945166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C37" t="n">
         <v>4.06</v>
@@ -1667,13 +1667,13 @@
         <v>4.06</v>
       </c>
       <c r="E37" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F37" t="n">
-        <v>1231.527</v>
+        <v>255763.0541</v>
       </c>
       <c r="G37" t="n">
-        <v>4.053999999999997</v>
+        <v>3.948333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>4.06</v>
       </c>
       <c r="F38" t="n">
-        <v>4152.1551</v>
+        <v>1231.527</v>
       </c>
       <c r="G38" t="n">
-        <v>4.053999999999997</v>
+        <v>3.951333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>4.06</v>
       </c>
       <c r="F39" t="n">
-        <v>1772.66</v>
+        <v>4152.1551</v>
       </c>
       <c r="G39" t="n">
-        <v>4.055999999999996</v>
+        <v>3.954333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>4.06</v>
       </c>
       <c r="F40" t="n">
-        <v>68660.15829852216</v>
+        <v>1772.66</v>
       </c>
       <c r="G40" t="n">
-        <v>4.059999999999997</v>
+        <v>3.957333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>4.06</v>
       </c>
       <c r="F41" t="n">
-        <v>19235</v>
+        <v>68660.15829852216</v>
       </c>
       <c r="G41" t="n">
-        <v>4.059999999999997</v>
+        <v>3.960333333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>4.06</v>
       </c>
       <c r="C42" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="D42" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E42" t="n">
         <v>4.06</v>
       </c>
       <c r="F42" t="n">
-        <v>14155</v>
+        <v>19235</v>
       </c>
       <c r="G42" t="n">
-        <v>4.063999999999997</v>
+        <v>3.963333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C43" t="n">
         <v>4.08</v>
       </c>
-      <c r="C43" t="n">
-        <v>4.1</v>
-      </c>
       <c r="D43" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E43" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F43" t="n">
-        <v>382363</v>
+        <v>14155</v>
       </c>
       <c r="G43" t="n">
-        <v>4.071999999999997</v>
+        <v>3.966666666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C44" t="n">
         <v>4.1</v>
       </c>
-      <c r="C44" t="n">
-        <v>4.14</v>
-      </c>
       <c r="D44" t="n">
-        <v>4.14</v>
+        <v>4.1</v>
       </c>
       <c r="E44" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F44" t="n">
-        <v>698031.4451014778</v>
+        <v>382363</v>
       </c>
       <c r="G44" t="n">
-        <v>4.087999999999997</v>
+        <v>3.970333333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.14</v>
+        <v>4.1</v>
       </c>
       <c r="C45" t="n">
         <v>4.14</v>
@@ -1947,13 +1947,13 @@
         <v>4.14</v>
       </c>
       <c r="E45" t="n">
-        <v>4.14</v>
+        <v>4.1</v>
       </c>
       <c r="F45" t="n">
-        <v>92908</v>
+        <v>698031.4451014778</v>
       </c>
       <c r="G45" t="n">
-        <v>4.103999999999997</v>
+        <v>3.974500000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.12</v>
+        <v>4.14</v>
       </c>
       <c r="C46" t="n">
-        <v>4.12</v>
+        <v>4.14</v>
       </c>
       <c r="D46" t="n">
-        <v>4.12</v>
+        <v>4.14</v>
       </c>
       <c r="E46" t="n">
-        <v>4.12</v>
+        <v>4.14</v>
       </c>
       <c r="F46" t="n">
-        <v>37573.0582</v>
+        <v>92908</v>
       </c>
       <c r="G46" t="n">
-        <v>4.115999999999998</v>
+        <v>3.979000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="C47" t="n">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="D47" t="n">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="E47" t="n">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="F47" t="n">
-        <v>156.3855</v>
+        <v>37573.0582</v>
       </c>
       <c r="G47" t="n">
-        <v>4.121999999999997</v>
+        <v>3.982833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="C48" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="D48" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="E48" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="F48" t="n">
         <v>156.3855</v>
       </c>
       <c r="G48" t="n">
-        <v>4.125999999999998</v>
+        <v>3.986333333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
       <c r="C49" t="n">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
       <c r="D49" t="n">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
       <c r="E49" t="n">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
       <c r="F49" t="n">
-        <v>7599.1767</v>
+        <v>156.3855</v>
       </c>
       <c r="G49" t="n">
-        <v>4.123999999999997</v>
+        <v>3.990500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
       <c r="C50" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="D50" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="E50" t="n">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
       <c r="F50" t="n">
-        <v>447961.5546</v>
+        <v>7599.1767</v>
       </c>
       <c r="G50" t="n">
-        <v>4.123999999999997</v>
+        <v>3.994333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.13</v>
+        <v>4.11</v>
       </c>
       <c r="C51" t="n">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="D51" t="n">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="E51" t="n">
-        <v>4.13</v>
+        <v>4.11</v>
       </c>
       <c r="F51" t="n">
-        <v>738652.1848</v>
+        <v>447961.5546</v>
       </c>
       <c r="G51" t="n">
-        <v>4.131999999999997</v>
+        <v>3.998333333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.17</v>
+        <v>4.13</v>
       </c>
       <c r="C52" t="n">
-        <v>4.19</v>
+        <v>4.16</v>
       </c>
       <c r="D52" t="n">
-        <v>4.19</v>
+        <v>4.16</v>
       </c>
       <c r="E52" t="n">
-        <v>4.17</v>
+        <v>4.13</v>
       </c>
       <c r="F52" t="n">
-        <v>230000</v>
+        <v>738652.1848</v>
       </c>
       <c r="G52" t="n">
-        <v>4.147999999999998</v>
+        <v>4.002666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="C53" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="D53" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="E53" t="n">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="F53" t="n">
-        <v>458204.4815</v>
+        <v>230000</v>
       </c>
       <c r="G53" t="n">
-        <v>4.163999999999997</v>
+        <v>4.007333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="C54" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="D54" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="E54" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="F54" t="n">
-        <v>103823.5902</v>
+        <v>458204.4815</v>
       </c>
       <c r="G54" t="n">
-        <v>4.175999999999997</v>
+        <v>4.011833333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C55" t="n">
         <v>4.19</v>
       </c>
-      <c r="C55" t="n">
-        <v>4.2</v>
-      </c>
       <c r="D55" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="E55" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="F55" t="n">
-        <v>10509.30787589499</v>
+        <v>103823.5902</v>
       </c>
       <c r="G55" t="n">
-        <v>4.187999999999997</v>
+        <v>4.016166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>4.19</v>
       </c>
       <c r="C56" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="D56" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="E56" t="n">
         <v>4.19</v>
       </c>
       <c r="F56" t="n">
-        <v>388702.7684</v>
+        <v>10509.30787589499</v>
       </c>
       <c r="G56" t="n">
-        <v>4.193999999999997</v>
+        <v>4.021</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>4.19</v>
       </c>
       <c r="C57" t="n">
-        <v>4.17</v>
+        <v>4.19</v>
       </c>
       <c r="D57" t="n">
-        <v>4.21</v>
+        <v>4.19</v>
       </c>
       <c r="E57" t="n">
-        <v>4.17</v>
+        <v>4.19</v>
       </c>
       <c r="F57" t="n">
-        <v>518441.6904</v>
+        <v>388702.7684</v>
       </c>
       <c r="G57" t="n">
-        <v>4.189999999999997</v>
+        <v>4.025666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.13</v>
+        <v>4.19</v>
       </c>
       <c r="C58" t="n">
         <v>4.17</v>
       </c>
       <c r="D58" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E58" t="n">
         <v>4.17</v>
       </c>
-      <c r="E58" t="n">
-        <v>4.12</v>
-      </c>
       <c r="F58" t="n">
-        <v>714115.6181</v>
+        <v>518441.6904</v>
       </c>
       <c r="G58" t="n">
-        <v>4.183999999999997</v>
+        <v>4.029999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="C59" t="n">
-        <v>4.16</v>
+        <v>4.17</v>
       </c>
       <c r="D59" t="n">
-        <v>4.21</v>
+        <v>4.17</v>
       </c>
       <c r="E59" t="n">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
       <c r="F59" t="n">
-        <v>530033.373</v>
+        <v>714115.6181</v>
       </c>
       <c r="G59" t="n">
-        <v>4.177999999999996</v>
+        <v>4.034333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D60" t="n">
         <v>4.21</v>
       </c>
-      <c r="C60" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4.22</v>
-      </c>
       <c r="E60" t="n">
-        <v>4.21</v>
+        <v>4.14</v>
       </c>
       <c r="F60" t="n">
-        <v>10100</v>
+        <v>530033.373</v>
       </c>
       <c r="G60" t="n">
-        <v>4.181999999999997</v>
+        <v>4.0385</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C61" t="n">
         <v>4.22</v>
       </c>
-      <c r="C61" t="n">
-        <v>4.23</v>
-      </c>
       <c r="D61" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="E61" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="F61" t="n">
-        <v>393597</v>
+        <v>10100</v>
       </c>
       <c r="G61" t="n">
-        <v>4.189999999999996</v>
+        <v>4.043666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,28 +2533,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C62" t="n">
         <v>4.23</v>
       </c>
-      <c r="C62" t="n">
-        <v>4.25</v>
-      </c>
       <c r="D62" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="E62" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="F62" t="n">
-        <v>1340920.4749</v>
+        <v>393597</v>
       </c>
       <c r="G62" t="n">
-        <v>4.205999999999996</v>
+        <v>4.048999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2568,10 +2568,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C63" t="n">
         <v>4.25</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.24</v>
       </c>
       <c r="D63" t="n">
         <v>4.25</v>
@@ -2580,10 +2580,10 @@
         <v>4.22</v>
       </c>
       <c r="F63" t="n">
-        <v>645140.4277999999</v>
+        <v>1340920.4749</v>
       </c>
       <c r="G63" t="n">
-        <v>4.219999999999996</v>
+        <v>4.054666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,28 +2603,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="C64" t="n">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="D64" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="E64" t="n">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="F64" t="n">
-        <v>10000</v>
+        <v>645140.4277999999</v>
       </c>
       <c r="G64" t="n">
-        <v>4.227999999999996</v>
+        <v>4.060166666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2650,16 +2650,16 @@
         <v>4.2</v>
       </c>
       <c r="F65" t="n">
-        <v>27882.1428</v>
+        <v>10000</v>
       </c>
       <c r="G65" t="n">
-        <v>4.223999999999996</v>
+        <v>4.065</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="C66" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="D66" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="E66" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="F66" t="n">
-        <v>7574.7535</v>
+        <v>27882.1428</v>
       </c>
       <c r="G66" t="n">
-        <v>4.207999999999997</v>
+        <v>4.069833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.18</v>
+        <v>4.15</v>
       </c>
       <c r="C67" t="n">
         <v>4.15</v>
       </c>
       <c r="D67" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="E67" t="n">
         <v>4.15</v>
       </c>
       <c r="F67" t="n">
-        <v>38480.6956</v>
+        <v>7574.7535</v>
       </c>
       <c r="G67" t="n">
-        <v>4.187999999999997</v>
+        <v>4.073833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>4.18</v>
       </c>
       <c r="C68" t="n">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="D68" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="E68" t="n">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="F68" t="n">
-        <v>17229.16</v>
+        <v>38480.6956</v>
       </c>
       <c r="G68" t="n">
-        <v>4.173999999999997</v>
+        <v>4.077666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>4.18</v>
       </c>
       <c r="C69" t="n">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="D69" t="n">
         <v>4.18</v>
       </c>
       <c r="E69" t="n">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="F69" t="n">
-        <v>88516.7464</v>
+        <v>17229.16</v>
       </c>
       <c r="G69" t="n">
-        <v>4.169999999999996</v>
+        <v>4.0815</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="C70" t="n">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="D70" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="E70" t="n">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="F70" t="n">
-        <v>29490.4197</v>
+        <v>88516.7464</v>
       </c>
       <c r="G70" t="n">
-        <v>4.159999999999997</v>
+        <v>4.0855</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C71" t="n">
         <v>4.15</v>
       </c>
-      <c r="C71" t="n">
-        <v>4.1</v>
-      </c>
       <c r="D71" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E71" t="n">
         <v>4.15</v>
       </c>
-      <c r="E71" t="n">
-        <v>4.1</v>
-      </c>
       <c r="F71" t="n">
-        <v>85355.47840000001</v>
+        <v>29490.4197</v>
       </c>
       <c r="G71" t="n">
-        <v>4.149999999999997</v>
+        <v>4.0895</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.16</v>
+        <v>4.15</v>
       </c>
       <c r="C72" t="n">
-        <v>4.16</v>
+        <v>4.1</v>
       </c>
       <c r="D72" t="n">
-        <v>4.16</v>
+        <v>4.15</v>
       </c>
       <c r="E72" t="n">
-        <v>4.16</v>
+        <v>4.1</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>85355.47840000001</v>
       </c>
       <c r="G72" t="n">
-        <v>4.151999999999997</v>
+        <v>4.092333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.18</v>
+        <v>4.16</v>
       </c>
       <c r="C73" t="n">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="D73" t="n">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="E73" t="n">
-        <v>4.18</v>
+        <v>4.16</v>
       </c>
       <c r="F73" t="n">
-        <v>156010</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>4.157999999999997</v>
+        <v>4.096166666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.14</v>
+        <v>4.18</v>
       </c>
       <c r="C74" t="n">
-        <v>4.14</v>
+        <v>4.2</v>
       </c>
       <c r="D74" t="n">
-        <v>4.14</v>
+        <v>4.2</v>
       </c>
       <c r="E74" t="n">
-        <v>4.14</v>
+        <v>4.18</v>
       </c>
       <c r="F74" t="n">
-        <v>10466.8817</v>
+        <v>156010</v>
       </c>
       <c r="G74" t="n">
-        <v>4.149999999999997</v>
+        <v>4.100666666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.17</v>
+        <v>4.14</v>
       </c>
       <c r="C75" t="n">
-        <v>4.2</v>
+        <v>4.14</v>
       </c>
       <c r="D75" t="n">
-        <v>4.2</v>
+        <v>4.14</v>
       </c>
       <c r="E75" t="n">
-        <v>4.17</v>
+        <v>4.14</v>
       </c>
       <c r="F75" t="n">
-        <v>210220.1149</v>
+        <v>10466.8817</v>
       </c>
       <c r="G75" t="n">
-        <v>4.159999999999997</v>
+        <v>4.104333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="C76" t="n">
         <v>4.2</v>
@@ -3032,13 +3032,13 @@
         <v>4.2</v>
       </c>
       <c r="E76" t="n">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="F76" t="n">
-        <v>31244.8356</v>
+        <v>210220.1149</v>
       </c>
       <c r="G76" t="n">
-        <v>4.179999999999997</v>
+        <v>4.108499999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="C77" t="n">
-        <v>4.14</v>
+        <v>4.2</v>
       </c>
       <c r="D77" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="E77" t="n">
-        <v>4.14</v>
+        <v>4.2</v>
       </c>
       <c r="F77" t="n">
-        <v>259429.0512</v>
+        <v>31244.8356</v>
       </c>
       <c r="G77" t="n">
-        <v>4.175999999999997</v>
+        <v>4.112666666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C78" t="n">
         <v>4.14</v>
       </c>
-      <c r="C78" t="n">
-        <v>4.13</v>
-      </c>
       <c r="D78" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E78" t="n">
         <v>4.14</v>
       </c>
-      <c r="E78" t="n">
-        <v>4.1</v>
-      </c>
       <c r="F78" t="n">
-        <v>588148.7478</v>
+        <v>259429.0512</v>
       </c>
       <c r="G78" t="n">
-        <v>4.161999999999997</v>
+        <v>4.115666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="C79" t="n">
         <v>4.13</v>
       </c>
       <c r="D79" t="n">
-        <v>4.19</v>
+        <v>4.14</v>
       </c>
       <c r="E79" t="n">
-        <v>4.13</v>
+        <v>4.1</v>
       </c>
       <c r="F79" t="n">
-        <v>108788.3815</v>
+        <v>588148.7478</v>
       </c>
       <c r="G79" t="n">
-        <v>4.159999999999997</v>
+        <v>4.118333333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,10 +3163,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C80" t="n">
         <v>4.13</v>
-      </c>
-      <c r="C80" t="n">
-        <v>4.19</v>
       </c>
       <c r="D80" t="n">
         <v>4.19</v>
@@ -3175,10 +3175,10 @@
         <v>4.13</v>
       </c>
       <c r="F80" t="n">
-        <v>408816</v>
+        <v>108788.3815</v>
       </c>
       <c r="G80" t="n">
-        <v>4.157999999999997</v>
+        <v>4.120833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.17</v>
+        <v>4.13</v>
       </c>
       <c r="C81" t="n">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="D81" t="n">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="E81" t="n">
-        <v>4.16</v>
+        <v>4.13</v>
       </c>
       <c r="F81" t="n">
-        <v>96277.09110000001</v>
+        <v>408816</v>
       </c>
       <c r="G81" t="n">
-        <v>4.153999999999997</v>
+        <v>4.124166666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="C82" t="n">
         <v>4.18</v>
@@ -3242,13 +3242,13 @@
         <v>4.18</v>
       </c>
       <c r="E82" t="n">
-        <v>4.18</v>
+        <v>4.16</v>
       </c>
       <c r="F82" t="n">
-        <v>48696.5326</v>
+        <v>96277.09110000001</v>
       </c>
       <c r="G82" t="n">
-        <v>4.161999999999997</v>
+        <v>4.127166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>4.18</v>
       </c>
       <c r="C83" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="D83" t="n">
         <v>4.18</v>
       </c>
       <c r="E83" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="F83" t="n">
-        <v>79605.47689999999</v>
+        <v>48696.5326</v>
       </c>
       <c r="G83" t="n">
-        <v>4.169999999999996</v>
+        <v>4.129833333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="C84" t="n">
         <v>4.17</v>
       </c>
       <c r="D84" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="E84" t="n">
         <v>4.17</v>
       </c>
       <c r="F84" t="n">
-        <v>10000</v>
+        <v>79605.47689999999</v>
       </c>
       <c r="G84" t="n">
-        <v>4.177999999999996</v>
+        <v>4.132166666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>4.17</v>
       </c>
       <c r="F85" t="n">
-        <v>66089</v>
+        <v>10000</v>
       </c>
       <c r="G85" t="n">
-        <v>4.173999999999996</v>
+        <v>4.133999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.15</v>
+        <v>4.17</v>
       </c>
       <c r="C86" t="n">
         <v>4.17</v>
@@ -3382,13 +3382,13 @@
         <v>4.17</v>
       </c>
       <c r="E86" t="n">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="F86" t="n">
-        <v>980020.1621</v>
+        <v>66089</v>
       </c>
       <c r="G86" t="n">
-        <v>4.171999999999995</v>
+        <v>4.135833333333331</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C87" t="n">
         <v>4.17</v>
       </c>
-      <c r="C87" t="n">
-        <v>4.18</v>
-      </c>
       <c r="D87" t="n">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="E87" t="n">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="F87" t="n">
-        <v>173349.62</v>
+        <v>980020.1621</v>
       </c>
       <c r="G87" t="n">
-        <v>4.171999999999995</v>
+        <v>4.137666666666664</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="C88" t="n">
         <v>4.18</v>
@@ -3452,13 +3452,13 @@
         <v>4.18</v>
       </c>
       <c r="E88" t="n">
-        <v>4.18</v>
+        <v>4.16</v>
       </c>
       <c r="F88" t="n">
-        <v>25579.6239</v>
+        <v>173349.62</v>
       </c>
       <c r="G88" t="n">
-        <v>4.173999999999995</v>
+        <v>4.140333333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.16</v>
+        <v>4.18</v>
       </c>
       <c r="C89" t="n">
-        <v>4.16</v>
+        <v>4.18</v>
       </c>
       <c r="D89" t="n">
-        <v>4.16</v>
+        <v>4.18</v>
       </c>
       <c r="E89" t="n">
-        <v>4.16</v>
+        <v>4.18</v>
       </c>
       <c r="F89" t="n">
-        <v>117327.3232</v>
+        <v>25579.6239</v>
       </c>
       <c r="G89" t="n">
-        <v>4.171999999999995</v>
+        <v>4.142499999999997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>4.16</v>
       </c>
       <c r="F90" t="n">
-        <v>67281.5178</v>
+        <v>117327.3232</v>
       </c>
       <c r="G90" t="n">
-        <v>4.169999999999996</v>
+        <v>4.144333333333331</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="C91" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="D91" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="E91" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="F91" t="n">
-        <v>22482.0143</v>
+        <v>67281.5178</v>
       </c>
       <c r="G91" t="n">
-        <v>4.169999999999996</v>
+        <v>4.146166666666664</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="C92" t="n">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="D92" t="n">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="E92" t="n">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="F92" t="n">
-        <v>567501.0146</v>
+        <v>22482.0143</v>
       </c>
       <c r="G92" t="n">
-        <v>4.161999999999996</v>
+        <v>4.148166666666664</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,19 +3621,19 @@
         <v>4.14</v>
       </c>
       <c r="C93" t="n">
-        <v>4.17</v>
+        <v>4.14</v>
       </c>
       <c r="D93" t="n">
-        <v>4.17</v>
+        <v>4.14</v>
       </c>
       <c r="E93" t="n">
         <v>4.14</v>
       </c>
       <c r="F93" t="n">
-        <v>251373.845</v>
+        <v>567501.0146</v>
       </c>
       <c r="G93" t="n">
-        <v>4.159999999999997</v>
+        <v>4.149666666666663</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="C94" t="n">
-        <v>4.16</v>
+        <v>4.17</v>
       </c>
       <c r="D94" t="n">
-        <v>4.16</v>
+        <v>4.17</v>
       </c>
       <c r="E94" t="n">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="F94" t="n">
-        <v>35271</v>
+        <v>251373.845</v>
       </c>
       <c r="G94" t="n">
-        <v>4.159999999999997</v>
+        <v>4.151499999999996</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>4.16</v>
       </c>
       <c r="C95" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="D95" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="E95" t="n">
         <v>4.16</v>
       </c>
       <c r="F95" t="n">
-        <v>11322</v>
+        <v>35271</v>
       </c>
       <c r="G95" t="n">
-        <v>4.161999999999997</v>
+        <v>4.15333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.13</v>
+        <v>4.16</v>
       </c>
       <c r="C96" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E96" t="n">
         <v>4.16</v>
       </c>
-      <c r="D96" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E96" t="n">
-        <v>4.13</v>
-      </c>
       <c r="F96" t="n">
-        <v>29681.2733</v>
+        <v>11322</v>
       </c>
       <c r="G96" t="n">
-        <v>4.159999999999997</v>
+        <v>4.155499999999996</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.16</v>
+        <v>4.13</v>
       </c>
       <c r="C97" t="n">
         <v>4.16</v>
@@ -3767,13 +3767,13 @@
         <v>4.16</v>
       </c>
       <c r="E97" t="n">
-        <v>4.16</v>
+        <v>4.13</v>
       </c>
       <c r="F97" t="n">
-        <v>6900</v>
+        <v>29681.2733</v>
       </c>
       <c r="G97" t="n">
-        <v>4.163999999999996</v>
+        <v>4.157166666666662</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>4.16</v>
       </c>
       <c r="F98" t="n">
-        <v>147355</v>
+        <v>6900</v>
       </c>
       <c r="G98" t="n">
-        <v>4.161999999999996</v>
+        <v>4.158833333333329</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>4.16</v>
       </c>
       <c r="F99" t="n">
-        <v>94008.8653</v>
+        <v>147355</v>
       </c>
       <c r="G99" t="n">
-        <v>4.161999999999996</v>
+        <v>4.160499999999995</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="C100" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="D100" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="E100" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="F100" t="n">
-        <v>54260.2104</v>
+        <v>94008.8653</v>
       </c>
       <c r="G100" t="n">
-        <v>4.161999999999996</v>
+        <v>4.162166666666662</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>4.17</v>
       </c>
       <c r="F101" t="n">
-        <v>230</v>
+        <v>54260.2104</v>
       </c>
       <c r="G101" t="n">
-        <v>4.163999999999996</v>
+        <v>4.163999999999995</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.13</v>
+        <v>4.17</v>
       </c>
       <c r="C102" t="n">
-        <v>4.12</v>
+        <v>4.17</v>
       </c>
       <c r="D102" t="n">
-        <v>4.13</v>
+        <v>4.17</v>
       </c>
       <c r="E102" t="n">
-        <v>4.12</v>
+        <v>4.17</v>
       </c>
       <c r="F102" t="n">
-        <v>124216.2327</v>
+        <v>230</v>
       </c>
       <c r="G102" t="n">
-        <v>4.155999999999997</v>
+        <v>4.165833333333328</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C103" t="n">
         <v>4.12</v>
       </c>
-      <c r="C103" t="n">
-        <v>4.1</v>
-      </c>
       <c r="D103" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E103" t="n">
         <v>4.12</v>
       </c>
-      <c r="E103" t="n">
-        <v>4.1</v>
-      </c>
       <c r="F103" t="n">
-        <v>238315.512</v>
+        <v>124216.2327</v>
       </c>
       <c r="G103" t="n">
-        <v>4.143999999999997</v>
+        <v>4.166499999999995</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.07</v>
+        <v>4.12</v>
       </c>
       <c r="C104" t="n">
-        <v>4.03</v>
+        <v>4.1</v>
       </c>
       <c r="D104" t="n">
-        <v>4.07</v>
+        <v>4.12</v>
       </c>
       <c r="E104" t="n">
-        <v>4.03</v>
+        <v>4.1</v>
       </c>
       <c r="F104" t="n">
-        <v>573700</v>
+        <v>238315.512</v>
       </c>
       <c r="G104" t="n">
-        <v>4.117999999999997</v>
+        <v>4.166499999999995</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="C105" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="D105" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="E105" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F105" t="n">
-        <v>27400</v>
+        <v>573700</v>
       </c>
       <c r="G105" t="n">
-        <v>4.093999999999997</v>
+        <v>4.164666666666662</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="C106" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D106" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="E106" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F106" t="n">
-        <v>50429.9224</v>
+        <v>27400</v>
       </c>
       <c r="G106" t="n">
-        <v>4.071999999999997</v>
+        <v>4.163166666666663</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>4.06</v>
       </c>
       <c r="E107" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F107" t="n">
-        <v>99885.7179</v>
+        <v>50429.9224</v>
       </c>
       <c r="G107" t="n">
-        <v>4.059999999999997</v>
+        <v>4.162166666666662</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="C108" t="n">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="D108" t="n">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="E108" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="F108" t="n">
-        <v>24657.0199</v>
+        <v>99885.7179</v>
       </c>
       <c r="G108" t="n">
-        <v>4.043999999999997</v>
+        <v>4.161333333333329</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>4.02</v>
       </c>
       <c r="F109" t="n">
-        <v>50</v>
+        <v>24657.0199</v>
       </c>
       <c r="G109" t="n">
-        <v>4.041999999999996</v>
+        <v>4.159666666666662</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>4.02</v>
       </c>
       <c r="F110" t="n">
-        <v>36080.1606</v>
+        <v>50</v>
       </c>
       <c r="G110" t="n">
-        <v>4.035999999999996</v>
+        <v>4.157833333333329</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="C111" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="D111" t="n">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="E111" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="F111" t="n">
-        <v>382898.3704</v>
+        <v>36080.1606</v>
       </c>
       <c r="G111" t="n">
-        <v>4.017999999999996</v>
+        <v>4.155833333333329</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.99</v>
+        <v>4.03</v>
       </c>
       <c r="C112" t="n">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="D112" t="n">
-        <v>3.99</v>
+        <v>4.03</v>
       </c>
       <c r="E112" t="n">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="F112" t="n">
-        <v>23040.5028</v>
+        <v>382898.3704</v>
       </c>
       <c r="G112" t="n">
-        <v>4.001999999999997</v>
+        <v>4.152666666666663</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>3.98</v>
       </c>
       <c r="F113" t="n">
-        <v>48341.5971</v>
+        <v>23040.5028</v>
       </c>
       <c r="G113" t="n">
-        <v>3.993999999999997</v>
+        <v>4.149166666666662</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>3.99</v>
       </c>
       <c r="C114" t="n">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="D114" t="n">
         <v>3.99</v>
@@ -4365,10 +4365,10 @@
         <v>3.98</v>
       </c>
       <c r="F114" t="n">
-        <v>137673.7538</v>
+        <v>48341.5971</v>
       </c>
       <c r="G114" t="n">
-        <v>3.987999999999997</v>
+        <v>4.145499999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>3.99</v>
       </c>
       <c r="C115" t="n">
-        <v>4.01</v>
+        <v>3.99</v>
       </c>
       <c r="D115" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="E115" t="n">
         <v>3.98</v>
       </c>
       <c r="F115" t="n">
-        <v>246252.2903</v>
+        <v>137673.7538</v>
       </c>
       <c r="G115" t="n">
-        <v>3.985999999999998</v>
+        <v>4.142166666666663</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.98</v>
+        <v>3.99</v>
       </c>
       <c r="C116" t="n">
-        <v>3.98</v>
+        <v>4.01</v>
       </c>
       <c r="D116" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="E116" t="n">
         <v>3.98</v>
       </c>
       <c r="F116" t="n">
-        <v>4137.8876</v>
+        <v>246252.2903</v>
       </c>
       <c r="G116" t="n">
-        <v>3.987999999999998</v>
+        <v>4.138999999999997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4461,19 @@
         <v>3.98</v>
       </c>
       <c r="C117" t="n">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="D117" t="n">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="E117" t="n">
         <v>3.98</v>
       </c>
       <c r="F117" t="n">
-        <v>60000</v>
+        <v>4137.8876</v>
       </c>
       <c r="G117" t="n">
-        <v>3.989999999999998</v>
+        <v>4.135499999999996</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="C118" t="n">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
       <c r="D118" t="n">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
       <c r="E118" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="F118" t="n">
-        <v>349.125</v>
+        <v>60000</v>
       </c>
       <c r="G118" t="n">
-        <v>3.987999999999998</v>
+        <v>4.132499999999997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>3.97</v>
       </c>
       <c r="F119" t="n">
-        <v>1752.5047</v>
+        <v>349.125</v>
       </c>
       <c r="G119" t="n">
-        <v>3.983999999999997</v>
+        <v>4.129166666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>3.97</v>
       </c>
       <c r="F120" t="n">
-        <v>5481</v>
+        <v>1752.5047</v>
       </c>
       <c r="G120" t="n">
-        <v>3.975999999999998</v>
+        <v>4.125999999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>3.97</v>
       </c>
       <c r="F121" t="n">
-        <v>37766.4953</v>
+        <v>5481</v>
       </c>
       <c r="G121" t="n">
-        <v>3.973999999999998</v>
+        <v>4.12183333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="C122" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="D122" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="E122" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="F122" t="n">
-        <v>168953.5922</v>
+        <v>37766.4953</v>
       </c>
       <c r="G122" t="n">
-        <v>3.961999999999998</v>
+        <v>4.117499999999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
       <c r="C123" t="n">
         <v>3.93</v>
       </c>
       <c r="D123" t="n">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
       <c r="E123" t="n">
         <v>3.93</v>
       </c>
       <c r="F123" t="n">
-        <v>32578.92</v>
+        <v>168953.5922</v>
       </c>
       <c r="G123" t="n">
-        <v>3.953999999999998</v>
+        <v>4.112166666666663</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="C124" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="D124" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="E124" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="F124" t="n">
-        <v>50000</v>
+        <v>32578.92</v>
       </c>
       <c r="G124" t="n">
-        <v>3.941999999999998</v>
+        <v>4.106999999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="C125" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="D125" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="E125" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="F125" t="n">
-        <v>784341.4783</v>
+        <v>50000</v>
       </c>
       <c r="G125" t="n">
-        <v>3.933999999999998</v>
+        <v>4.102166666666664</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>3.93</v>
       </c>
       <c r="F126" t="n">
-        <v>51097</v>
+        <v>784341.4783</v>
       </c>
       <c r="G126" t="n">
-        <v>3.925999999999998</v>
+        <v>4.097666666666664</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="C127" t="n">
-        <v>3.98</v>
+        <v>3.93</v>
       </c>
       <c r="D127" t="n">
-        <v>3.98</v>
+        <v>3.93</v>
       </c>
       <c r="E127" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="F127" t="n">
-        <v>15571.9697</v>
+        <v>51097</v>
       </c>
       <c r="G127" t="n">
-        <v>3.935999999999999</v>
+        <v>4.093999999999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="C128" t="n">
-        <v>3.93</v>
+        <v>3.98</v>
       </c>
       <c r="D128" t="n">
-        <v>3.94</v>
+        <v>3.98</v>
       </c>
       <c r="E128" t="n">
-        <v>3.93</v>
+        <v>3.92</v>
       </c>
       <c r="F128" t="n">
-        <v>115463.6773</v>
+        <v>15571.9697</v>
       </c>
       <c r="G128" t="n">
-        <v>3.935999999999999</v>
+        <v>4.091166666666664</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="C129" t="n">
         <v>3.93</v>
       </c>
       <c r="D129" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="E129" t="n">
         <v>3.93</v>
       </c>
       <c r="F129" t="n">
-        <v>29980</v>
+        <v>115463.6773</v>
       </c>
       <c r="G129" t="n">
-        <v>3.939999999999999</v>
+        <v>4.087166666666664</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>3.93</v>
       </c>
       <c r="F130" t="n">
-        <v>16030.1756</v>
+        <v>29980</v>
       </c>
       <c r="G130" t="n">
-        <v>3.939999999999999</v>
+        <v>4.082999999999998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="C131" t="n">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="D131" t="n">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="E131" t="n">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>16030.1756</v>
       </c>
       <c r="G131" t="n">
-        <v>3.947999999999998</v>
+        <v>4.079333333333331</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.95</v>
+        <v>3.97</v>
       </c>
       <c r="C132" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="D132" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="E132" t="n">
-        <v>3.95</v>
+        <v>3.97</v>
       </c>
       <c r="F132" t="n">
-        <v>51975</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>3.943999999999998</v>
+        <v>4.077166666666664</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C133" t="n">
         <v>3.96</v>
       </c>
-      <c r="C133" t="n">
-        <v>3.97</v>
-      </c>
       <c r="D133" t="n">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="E133" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="F133" t="n">
-        <v>20536</v>
+        <v>51975</v>
       </c>
       <c r="G133" t="n">
-        <v>3.951999999999998</v>
+        <v>4.073833333333331</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="C134" t="n">
         <v>3.97</v>
@@ -5062,13 +5062,13 @@
         <v>3.97</v>
       </c>
       <c r="E134" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="F134" t="n">
-        <v>63048.8257</v>
+        <v>20536</v>
       </c>
       <c r="G134" t="n">
-        <v>3.959999999999998</v>
+        <v>4.069999999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="C135" t="n">
         <v>3.97</v>
@@ -5097,13 +5097,13 @@
         <v>3.97</v>
       </c>
       <c r="E135" t="n">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="F135" t="n">
-        <v>428000</v>
+        <v>63048.8257</v>
       </c>
       <c r="G135" t="n">
-        <v>3.967999999999998</v>
+        <v>4.067166666666664</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.94</v>
+        <v>3.97</v>
       </c>
       <c r="C136" t="n">
-        <v>3.94</v>
+        <v>3.97</v>
       </c>
       <c r="D136" t="n">
-        <v>3.94</v>
+        <v>3.97</v>
       </c>
       <c r="E136" t="n">
-        <v>3.94</v>
+        <v>3.97</v>
       </c>
       <c r="F136" t="n">
-        <v>6839.4145</v>
+        <v>428000</v>
       </c>
       <c r="G136" t="n">
-        <v>3.961999999999998</v>
+        <v>4.063333333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>3.94</v>
       </c>
       <c r="F137" t="n">
-        <v>100000</v>
+        <v>6839.4145</v>
       </c>
       <c r="G137" t="n">
-        <v>3.957999999999998</v>
+        <v>4.058999999999998</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="C138" t="n">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="D138" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="E138" t="n">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="F138" t="n">
-        <v>411356.5894</v>
+        <v>100000</v>
       </c>
       <c r="G138" t="n">
-        <v>3.943999999999998</v>
+        <v>4.055666666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,19 +5231,19 @@
         <v>3.93</v>
       </c>
       <c r="C139" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="D139" t="n">
         <v>3.93</v>
       </c>
       <c r="E139" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>411356.5894</v>
       </c>
       <c r="G139" t="n">
-        <v>3.935999999999999</v>
+        <v>4.051833333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="C140" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="D140" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="E140" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="F140" t="n">
-        <v>12487</v>
+        <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>3.921999999999998</v>
+        <v>4.048499999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5301,19 @@
         <v>3.9</v>
       </c>
       <c r="C141" t="n">
-        <v>3.91</v>
+        <v>3.9</v>
       </c>
       <c r="D141" t="n">
-        <v>3.91</v>
+        <v>3.9</v>
       </c>
       <c r="E141" t="n">
         <v>3.9</v>
       </c>
       <c r="F141" t="n">
-        <v>4380</v>
+        <v>12487</v>
       </c>
       <c r="G141" t="n">
-        <v>3.915999999999998</v>
+        <v>4.043666666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="C142" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="D142" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="E142" t="n">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>4380</v>
       </c>
       <c r="G142" t="n">
-        <v>3.915999999999998</v>
+        <v>4.039166666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="C143" t="n">
         <v>3.94</v>
@@ -5377,13 +5377,13 @@
         <v>3.94</v>
       </c>
       <c r="E143" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="F143" t="n">
-        <v>81895</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>3.923999999999999</v>
+        <v>4.035166666666665</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="C144" t="n">
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
       <c r="D144" t="n">
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
       <c r="E144" t="n">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="F144" t="n">
-        <v>986042.1822</v>
+        <v>81895</v>
       </c>
       <c r="G144" t="n">
-        <v>3.931999999999999</v>
+        <v>4.031333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="C145" t="n">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="D145" t="n">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="E145" t="n">
-        <v>3.98</v>
+        <v>3.89</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>986042.1822</v>
       </c>
       <c r="G145" t="n">
-        <v>3.947999999999999</v>
+        <v>4.028</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.93</v>
+        <v>3.98</v>
       </c>
       <c r="C146" t="n">
-        <v>3.93</v>
+        <v>3.98</v>
       </c>
       <c r="D146" t="n">
-        <v>3.93</v>
+        <v>3.98</v>
       </c>
       <c r="E146" t="n">
-        <v>3.93</v>
+        <v>3.98</v>
       </c>
       <c r="F146" t="n">
-        <v>314.1363</v>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>3.951999999999999</v>
+        <v>4.024833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="C147" t="n">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="D147" t="n">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="E147" t="n">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="F147" t="n">
-        <v>314</v>
+        <v>314.1363</v>
       </c>
       <c r="G147" t="n">
-        <v>3.953999999999998</v>
+        <v>4.020833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5546,19 @@
         <v>3.95</v>
       </c>
       <c r="C148" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="D148" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="E148" t="n">
         <v>3.95</v>
       </c>
       <c r="F148" t="n">
-        <v>398668</v>
+        <v>314</v>
       </c>
       <c r="G148" t="n">
-        <v>3.957999999999998</v>
+        <v>4.016999999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C149" t="n">
         <v>3.96</v>
-      </c>
-      <c r="C149" t="n">
-        <v>3.92</v>
       </c>
       <c r="D149" t="n">
         <v>3.96</v>
       </c>
       <c r="E149" t="n">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
       <c r="F149" t="n">
-        <v>2193566</v>
+        <v>398668</v>
       </c>
       <c r="G149" t="n">
-        <v>3.947999999999999</v>
+        <v>4.013333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5616,19 @@
         <v>3.96</v>
       </c>
       <c r="C150" t="n">
-        <v>3.96</v>
+        <v>3.92</v>
       </c>
       <c r="D150" t="n">
         <v>3.96</v>
       </c>
       <c r="E150" t="n">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="F150" t="n">
-        <v>585044.8014</v>
+        <v>2193566</v>
       </c>
       <c r="G150" t="n">
-        <v>3.943999999999999</v>
+        <v>4.009333333333332</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5657,13 +5657,13 @@
         <v>3.96</v>
       </c>
       <c r="E151" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="F151" t="n">
-        <v>428000</v>
+        <v>585044.8014</v>
       </c>
       <c r="G151" t="n">
-        <v>3.949999999999999</v>
+        <v>4.005999999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>3.96</v>
       </c>
       <c r="F152" t="n">
-        <v>10000</v>
+        <v>428000</v>
       </c>
       <c r="G152" t="n">
-        <v>3.952</v>
+        <v>4.0025</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>3.96</v>
       </c>
       <c r="F153" t="n">
-        <v>146612.7474</v>
+        <v>10000</v>
       </c>
       <c r="G153" t="n">
-        <v>3.952</v>
+        <v>3.9995</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>3.96</v>
       </c>
       <c r="F154" t="n">
-        <v>1366976.597</v>
+        <v>146612.7474</v>
       </c>
       <c r="G154" t="n">
-        <v>3.96</v>
+        <v>3.996</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>3.96</v>
       </c>
       <c r="F155" t="n">
-        <v>80372.16800000001</v>
+        <v>1366976.597</v>
       </c>
       <c r="G155" t="n">
-        <v>3.96</v>
+        <v>3.992666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>3.96</v>
       </c>
       <c r="F156" t="n">
-        <v>462760.8108</v>
+        <v>80372.16800000001</v>
       </c>
       <c r="G156" t="n">
-        <v>3.96</v>
+        <v>3.989166666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.94</v>
+        <v>3.96</v>
       </c>
       <c r="C157" t="n">
         <v>3.96</v>
@@ -5867,13 +5867,13 @@
         <v>3.96</v>
       </c>
       <c r="E157" t="n">
-        <v>3.94</v>
+        <v>3.96</v>
       </c>
       <c r="F157" t="n">
-        <v>46095.2317</v>
+        <v>462760.8108</v>
       </c>
       <c r="G157" t="n">
-        <v>3.96</v>
+        <v>3.985833333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="C158" t="n">
         <v>3.96</v>
@@ -5902,13 +5902,13 @@
         <v>3.96</v>
       </c>
       <c r="E158" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="F158" t="n">
-        <v>811.2492999999999</v>
+        <v>46095.2317</v>
       </c>
       <c r="G158" t="n">
-        <v>3.96</v>
+        <v>3.982500000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5931,19 @@
         <v>3.96</v>
       </c>
       <c r="C159" t="n">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="D159" t="n">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="E159" t="n">
         <v>3.96</v>
       </c>
       <c r="F159" t="n">
-        <v>427811.2493</v>
+        <v>811.2492999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>3.964</v>
+        <v>3.979166666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,7 +5963,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="C160" t="n">
         <v>3.98</v>
@@ -5972,13 +5972,13 @@
         <v>3.98</v>
       </c>
       <c r="E160" t="n">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="F160" t="n">
-        <v>104985.5514</v>
+        <v>427811.2493</v>
       </c>
       <c r="G160" t="n">
-        <v>3.967999999999999</v>
+        <v>3.976166666666668</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6010,10 @@
         <v>3.98</v>
       </c>
       <c r="F161" t="n">
-        <v>136650.1534</v>
+        <v>104985.5514</v>
       </c>
       <c r="G161" t="n">
-        <v>3.971999999999999</v>
+        <v>3.973000000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>3.98</v>
       </c>
       <c r="F162" t="n">
-        <v>32132.1981</v>
+        <v>136650.1534</v>
       </c>
       <c r="G162" t="n">
-        <v>3.975999999999999</v>
+        <v>3.969833333333335</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="D163" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="E163" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="F163" t="n">
-        <v>45615</v>
+        <v>32132.1981</v>
       </c>
       <c r="G163" t="n">
-        <v>3.983999999999999</v>
+        <v>3.967500000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="C164" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="E164" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="F164" t="n">
-        <v>6900</v>
+        <v>45615</v>
       </c>
       <c r="G164" t="n">
-        <v>3.985999999999999</v>
+        <v>3.965833333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="D165" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="F165" t="n">
-        <v>10</v>
+        <v>6900</v>
       </c>
       <c r="G165" t="n">
-        <v>3.989999999999999</v>
+        <v>3.965166666666668</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6176,19 +6176,19 @@
         <v>4</v>
       </c>
       <c r="C166" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="D166" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
       </c>
       <c r="F166" t="n">
-        <v>5052</v>
+        <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>3.997999999999999</v>
+        <v>3.964333333333335</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>4</v>
+      </c>
+      <c r="C167" t="n">
         <v>4.02</v>
       </c>
-      <c r="C167" t="n">
-        <v>4.05</v>
-      </c>
       <c r="D167" t="n">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="E167" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>37816</v>
+        <v>5052</v>
       </c>
       <c r="G167" t="n">
-        <v>4.011999999999999</v>
+        <v>3.963666666666668</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="C168" t="n">
-        <v>3.97</v>
+        <v>4.05</v>
       </c>
       <c r="D168" t="n">
-        <v>3.97</v>
+        <v>4.05</v>
       </c>
       <c r="E168" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="F168" t="n">
-        <v>16932.3037</v>
+        <v>37816</v>
       </c>
       <c r="G168" t="n">
-        <v>4.005999999999998</v>
+        <v>3.963500000000002</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.01</v>
+        <v>3.97</v>
       </c>
       <c r="C169" t="n">
-        <v>4.01</v>
+        <v>3.97</v>
       </c>
       <c r="D169" t="n">
-        <v>4.01</v>
+        <v>3.97</v>
       </c>
       <c r="E169" t="n">
-        <v>4.01</v>
+        <v>3.97</v>
       </c>
       <c r="F169" t="n">
-        <v>1190</v>
+        <v>16932.3037</v>
       </c>
       <c r="G169" t="n">
-        <v>4.009999999999998</v>
+        <v>3.962666666666668</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
       <c r="C170" t="n">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
       <c r="D170" t="n">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
       <c r="E170" t="n">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>1190</v>
       </c>
       <c r="G170" t="n">
-        <v>4.013999999999998</v>
+        <v>3.962500000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>4.02</v>
       </c>
       <c r="F171" t="n">
-        <v>246268.6567</v>
+        <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>4.013999999999998</v>
+        <v>3.962500000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="C172" t="n">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="D172" t="n">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="E172" t="n">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>246268.6567</v>
       </c>
       <c r="G172" t="n">
-        <v>4.009999999999998</v>
+        <v>3.963333333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="C173" t="n">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="D173" t="n">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="E173" t="n">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="F173" t="n">
-        <v>27.93</v>
+        <v>10</v>
       </c>
       <c r="G173" t="n">
-        <v>4.009999999999998</v>
+        <v>3.964166666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.03</v>
+        <v>3.97</v>
       </c>
       <c r="C174" t="n">
-        <v>4.03</v>
+        <v>3.97</v>
       </c>
       <c r="D174" t="n">
-        <v>4.03</v>
+        <v>3.97</v>
       </c>
       <c r="E174" t="n">
-        <v>4.03</v>
+        <v>3.97</v>
       </c>
       <c r="F174" t="n">
-        <v>10</v>
+        <v>27.93</v>
       </c>
       <c r="G174" t="n">
-        <v>4.013999999999998</v>
+        <v>3.964000000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="C175" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="D175" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="E175" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="F175" t="n">
-        <v>350000</v>
+        <v>10</v>
       </c>
       <c r="G175" t="n">
-        <v>4.017999999999999</v>
+        <v>3.964666666666668</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C176" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D176" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E176" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F176" t="n">
-        <v>10</v>
+        <v>350000</v>
       </c>
       <c r="G176" t="n">
-        <v>4.023999999999999</v>
+        <v>3.965166666666668</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="C177" t="n">
         <v>4.05</v>
@@ -6567,13 +6567,13 @@
         <v>4.05</v>
       </c>
       <c r="E177" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="F177" t="n">
-        <v>37618.5115</v>
+        <v>10</v>
       </c>
       <c r="G177" t="n">
-        <v>4.027999999999999</v>
+        <v>3.966333333333335</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6596,19 +6596,19 @@
         <v>4.02</v>
       </c>
       <c r="C178" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="D178" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="E178" t="n">
         <v>4.02</v>
       </c>
       <c r="F178" t="n">
-        <v>52351.075</v>
+        <v>37618.5115</v>
       </c>
       <c r="G178" t="n">
-        <v>4.037999999999998</v>
+        <v>3.967333333333335</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>4.02</v>
       </c>
       <c r="F179" t="n">
-        <v>56442.9051</v>
+        <v>52351.075</v>
       </c>
       <c r="G179" t="n">
-        <v>4.035999999999999</v>
+        <v>3.968166666666669</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="C180" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="D180" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="E180" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="F180" t="n">
-        <v>10</v>
+        <v>56442.9051</v>
       </c>
       <c r="G180" t="n">
-        <v>4.035999999999999</v>
+        <v>3.969000000000002</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="C181" t="n">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="F181" t="n">
-        <v>12585.6811</v>
+        <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>4.025999999999998</v>
+        <v>3.970166666666669</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="C182" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="D182" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="E182" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="F182" t="n">
-        <v>10</v>
+        <v>12585.6811</v>
       </c>
       <c r="G182" t="n">
-        <v>4.019999999999998</v>
+        <v>3.970666666666669</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="C183" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="D183" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="E183" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="F183" t="n">
-        <v>122530.0289</v>
+        <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>4.015999999999998</v>
+        <v>3.972166666666669</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="C184" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="D184" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="E184" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="F184" t="n">
-        <v>10</v>
+        <v>122530.0289</v>
       </c>
       <c r="G184" t="n">
-        <v>4.015999999999998</v>
+        <v>3.973333333333335</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="C185" t="n">
         <v>4.02</v>
@@ -6847,13 +6847,13 @@
         <v>4.02</v>
       </c>
       <c r="E185" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="F185" t="n">
-        <v>50010</v>
+        <v>10</v>
       </c>
       <c r="G185" t="n">
-        <v>4.011999999999999</v>
+        <v>3.975166666666669</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6876,19 +6876,19 @@
         <v>4</v>
       </c>
       <c r="C186" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="D186" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
       </c>
       <c r="F186" t="n">
-        <v>2384.29</v>
+        <v>50010</v>
       </c>
       <c r="G186" t="n">
-        <v>4.011999999999999</v>
+        <v>3.976666666666669</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="C187" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="D187" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="E187" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="F187" t="n">
-        <v>81603.52650000001</v>
+        <v>2384.29</v>
       </c>
       <c r="G187" t="n">
-        <v>4.005999999999998</v>
+        <v>3.977833333333336</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6955,10 +6955,10 @@
         <v>3.99</v>
       </c>
       <c r="F188" t="n">
-        <v>2326.0375</v>
+        <v>81603.52650000001</v>
       </c>
       <c r="G188" t="n">
-        <v>4.003999999999998</v>
+        <v>3.978000000000002</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>3.99</v>
       </c>
       <c r="F189" t="n">
-        <v>50000</v>
+        <v>2326.0375</v>
       </c>
       <c r="G189" t="n">
-        <v>3.997999999999998</v>
+        <v>3.979000000000002</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="D190" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="E190" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="F190" t="n">
-        <v>23.75</v>
+        <v>50000</v>
       </c>
       <c r="G190" t="n">
-        <v>3.993999999999998</v>
+        <v>3.980000000000003</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="C191" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="D191" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="E191" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="F191" t="n">
-        <v>11540</v>
+        <v>23.75</v>
       </c>
       <c r="G191" t="n">
-        <v>3.991999999999999</v>
+        <v>3.981166666666669</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="C192" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="D192" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="E192" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="F192" t="n">
-        <v>10</v>
+        <v>11540</v>
       </c>
       <c r="G192" t="n">
-        <v>3.993999999999998</v>
+        <v>3.981500000000003</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="C193" t="n">
         <v>4</v>
@@ -7127,13 +7127,13 @@
         <v>4</v>
       </c>
       <c r="E193" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="F193" t="n">
-        <v>17973.8075</v>
+        <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>3.995999999999998</v>
+        <v>3.982166666666669</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="C194" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="D194" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="E194" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="F194" t="n">
-        <v>12</v>
+        <v>17973.8075</v>
       </c>
       <c r="G194" t="n">
-        <v>4.001999999999998</v>
+        <v>3.982666666666669</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="D195" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="E195" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="F195" t="n">
-        <v>93418.87179999999</v>
+        <v>12</v>
       </c>
       <c r="G195" t="n">
-        <v>4.001999999999998</v>
+        <v>3.983500000000002</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="C196" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="E196" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="F196" t="n">
-        <v>12</v>
+        <v>93418.87179999999</v>
       </c>
       <c r="G196" t="n">
-        <v>4.007999999999998</v>
+        <v>3.984000000000003</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         <v>4.02</v>
       </c>
       <c r="F197" t="n">
-        <v>18834.5594</v>
+        <v>12</v>
       </c>
       <c r="G197" t="n">
-        <v>4.011999999999999</v>
+        <v>3.985333333333336</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7296,19 +7296,19 @@
         <v>4.02</v>
       </c>
       <c r="C198" t="n">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="D198" t="n">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="E198" t="n">
         <v>4.02</v>
       </c>
       <c r="F198" t="n">
-        <v>257408.37</v>
+        <v>18834.5594</v>
       </c>
       <c r="G198" t="n">
-        <v>4.017999999999999</v>
+        <v>3.98666666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7331,19 +7331,19 @@
         <v>4.02</v>
       </c>
       <c r="C199" t="n">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="D199" t="n">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="E199" t="n">
         <v>4.02</v>
       </c>
       <c r="F199" t="n">
-        <v>323.383</v>
+        <v>257408.37</v>
       </c>
       <c r="G199" t="n">
-        <v>4.017999999999999</v>
+        <v>3.988833333333337</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>4.02</v>
       </c>
       <c r="F200" t="n">
-        <v>1430.7213</v>
+        <v>323.383</v>
       </c>
       <c r="G200" t="n">
-        <v>4.021999999999998</v>
+        <v>3.990333333333337</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="C201" t="n">
         <v>4.02</v>
@@ -7407,13 +7407,13 @@
         <v>4.02</v>
       </c>
       <c r="E201" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="F201" t="n">
-        <v>158.1135</v>
+        <v>1430.7213</v>
       </c>
       <c r="G201" t="n">
-        <v>4.021999999999998</v>
+        <v>3.992333333333336</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,7 +7433,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="C202" t="n">
         <v>4.02</v>
@@ -7442,13 +7442,13 @@
         <v>4.02</v>
       </c>
       <c r="E202" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="F202" t="n">
-        <v>752.7363184079602</v>
+        <v>158.1135</v>
       </c>
       <c r="G202" t="n">
-        <v>4.021999999999998</v>
+        <v>3.99416666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="C203" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="D203" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="E203" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="F203" t="n">
-        <v>19686.9548</v>
+        <v>752.7363184079602</v>
       </c>
       <c r="G203" t="n">
-        <v>4.011999999999999</v>
+        <v>3.995500000000004</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>3.98</v>
+        <v>3.99</v>
       </c>
       <c r="C204" t="n">
         <v>3.98</v>
       </c>
       <c r="D204" t="n">
-        <v>3.98</v>
+        <v>3.99</v>
       </c>
       <c r="E204" t="n">
         <v>3.98</v>
       </c>
       <c r="F204" t="n">
-        <v>170378.9992</v>
+        <v>19686.9548</v>
       </c>
       <c r="G204" t="n">
-        <v>4.003999999999999</v>
+        <v>3.99616666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="C205" t="n">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="D205" t="n">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="E205" t="n">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="F205" t="n">
-        <v>10</v>
+        <v>170378.9992</v>
       </c>
       <c r="G205" t="n">
-        <v>4.003999999999999</v>
+        <v>3.996333333333337</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="C206" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="D206" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="E206" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="F206" t="n">
-        <v>7677.2948</v>
+        <v>10</v>
       </c>
       <c r="G206" t="n">
-        <v>3.995999999999999</v>
+        <v>3.997000000000004</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="C207" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="D207" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="E207" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="F207" t="n">
-        <v>67848.74679999999</v>
+        <v>7677.2948</v>
       </c>
       <c r="G207" t="n">
-        <v>3.991999999999999</v>
+        <v>3.997833333333337</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="C208" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="D208" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="E208" t="n">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="F208" t="n">
-        <v>204812.7597</v>
+        <v>67848.74679999999</v>
       </c>
       <c r="G208" t="n">
-        <v>3.993999999999999</v>
+        <v>3.99866666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,7 +7678,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="C209" t="n">
         <v>3.99</v>
@@ -7687,13 +7687,13 @@
         <v>3.99</v>
       </c>
       <c r="E209" t="n">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="F209" t="n">
-        <v>5103.7758</v>
+        <v>204812.7597</v>
       </c>
       <c r="G209" t="n">
-        <v>3.995999999999999</v>
+        <v>3.99916666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="C210" t="n">
-        <v>4.01</v>
+        <v>3.99</v>
       </c>
       <c r="D210" t="n">
-        <v>4.01</v>
+        <v>3.99</v>
       </c>
       <c r="E210" t="n">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="F210" t="n">
-        <v>31254.8356</v>
+        <v>5103.7758</v>
       </c>
       <c r="G210" t="n">
-        <v>3.993999999999999</v>
+        <v>4.000333333333337</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="C211" t="n">
-        <v>3.98</v>
+        <v>4.01</v>
       </c>
       <c r="D211" t="n">
-        <v>3.98</v>
+        <v>4.01</v>
       </c>
       <c r="E211" t="n">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="F211" t="n">
-        <v>344.4723</v>
+        <v>31254.8356</v>
       </c>
       <c r="G211" t="n">
-        <v>3.993999999999999</v>
+        <v>4.001166666666671</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>3.95</v>
+        <v>3.98</v>
       </c>
       <c r="C212" t="n">
-        <v>3.94</v>
+        <v>3.98</v>
       </c>
       <c r="D212" t="n">
-        <v>3.95</v>
+        <v>3.98</v>
       </c>
       <c r="E212" t="n">
-        <v>3.94</v>
+        <v>3.98</v>
       </c>
       <c r="F212" t="n">
-        <v>125607.6452</v>
+        <v>344.4723</v>
       </c>
       <c r="G212" t="n">
-        <v>3.981999999999999</v>
+        <v>4.001500000000004</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="C213" t="n">
         <v>3.94</v>
       </c>
       <c r="D213" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="E213" t="n">
         <v>3.94</v>
       </c>
       <c r="F213" t="n">
-        <v>36510.4411</v>
+        <v>125607.6452</v>
       </c>
       <c r="G213" t="n">
-        <v>3.972</v>
+        <v>4.00116666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7865,10 +7865,10 @@
         <v>3.94</v>
       </c>
       <c r="F214" t="n">
-        <v>37881.9137</v>
+        <v>36510.4411</v>
       </c>
       <c r="G214" t="n">
-        <v>3.962000000000001</v>
+        <v>4.000833333333336</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
       <c r="C215" t="n">
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
       <c r="D215" t="n">
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
       <c r="E215" t="n">
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>37881.9137</v>
       </c>
       <c r="G215" t="n">
-        <v>3.954000000000001</v>
+        <v>4.000500000000003</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="C216" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="D216" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="E216" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="F216" t="n">
-        <v>11621.9592</v>
+        <v>10</v>
       </c>
       <c r="G216" t="n">
-        <v>3.944</v>
+        <v>4.000666666666669</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>3.93</v>
       </c>
       <c r="F217" t="n">
-        <v>29742.5655</v>
+        <v>11621.9592</v>
       </c>
       <c r="G217" t="n">
-        <v>3.942</v>
+        <v>4.00016666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="C218" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="D218" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="E218" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="F218" t="n">
-        <v>198044.7164</v>
+        <v>29742.5655</v>
       </c>
       <c r="G218" t="n">
-        <v>3.936</v>
+        <v>3.999666666666669</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="C219" t="n">
         <v>3.91</v>
       </c>
       <c r="D219" t="n">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="E219" t="n">
         <v>3.91</v>
       </c>
       <c r="F219" t="n">
-        <v>17865.7032</v>
+        <v>198044.7164</v>
       </c>
       <c r="G219" t="n">
-        <v>3.93</v>
+        <v>3.998833333333336</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="C220" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="D220" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="E220" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="F220" t="n">
-        <v>130000.3277</v>
+        <v>17865.7032</v>
       </c>
       <c r="G220" t="n">
-        <v>3.915999999999999</v>
+        <v>3.997666666666669</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>3.9</v>
       </c>
       <c r="F221" t="n">
-        <v>0.6723</v>
+        <v>130000.3277</v>
       </c>
       <c r="G221" t="n">
-        <v>3.909999999999999</v>
+        <v>3.996333333333336</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8145,10 +8145,10 @@
         <v>3.9</v>
       </c>
       <c r="F222" t="n">
-        <v>2618.1037</v>
+        <v>0.6723</v>
       </c>
       <c r="G222" t="n">
-        <v>3.903999999999999</v>
+        <v>3.995000000000003</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8171,19 +8171,19 @@
         <v>3.9</v>
       </c>
       <c r="C223" t="n">
-        <v>3.97</v>
+        <v>3.9</v>
       </c>
       <c r="D223" t="n">
-        <v>3.97</v>
+        <v>3.9</v>
       </c>
       <c r="E223" t="n">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
       <c r="F223" t="n">
-        <v>604026.2426</v>
+        <v>2618.1037</v>
       </c>
       <c r="G223" t="n">
-        <v>3.915999999999999</v>
+        <v>3.99366666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>3.91</v>
+        <v>3.9</v>
       </c>
       <c r="C224" t="n">
-        <v>3.91</v>
+        <v>3.97</v>
       </c>
       <c r="D224" t="n">
-        <v>3.91</v>
+        <v>3.97</v>
       </c>
       <c r="E224" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="F224" t="n">
-        <v>6558.701</v>
+        <v>604026.2426</v>
       </c>
       <c r="G224" t="n">
-        <v>3.915999999999999</v>
+        <v>3.99316666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>3.91</v>
       </c>
       <c r="F225" t="n">
-        <v>2000</v>
+        <v>6558.701</v>
       </c>
       <c r="G225" t="n">
-        <v>3.917999999999999</v>
+        <v>3.991833333333337</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="C226" t="n">
         <v>3.91</v>
@@ -8282,13 +8282,13 @@
         <v>3.91</v>
       </c>
       <c r="E226" t="n">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="F226" t="n">
-        <v>53842.5946</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="n">
-        <v>3.919999999999999</v>
+        <v>3.990333333333337</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8311,19 +8311,19 @@
         <v>3.89</v>
       </c>
       <c r="C227" t="n">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="D227" t="n">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="E227" t="n">
         <v>3.89</v>
       </c>
       <c r="F227" t="n">
-        <v>19227.8791</v>
+        <v>53842.5946</v>
       </c>
       <c r="G227" t="n">
-        <v>3.918</v>
+        <v>3.988500000000003</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>3.87</v>
+        <v>3.89</v>
       </c>
       <c r="C228" t="n">
-        <v>3.87</v>
+        <v>3.89</v>
       </c>
       <c r="D228" t="n">
-        <v>3.87</v>
+        <v>3.89</v>
       </c>
       <c r="E228" t="n">
-        <v>3.87</v>
+        <v>3.89</v>
       </c>
       <c r="F228" t="n">
-        <v>7617.1448</v>
+        <v>19227.8791</v>
       </c>
       <c r="G228" t="n">
-        <v>3.898000000000001</v>
+        <v>3.985833333333336</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8381,19 +8381,19 @@
         <v>3.87</v>
       </c>
       <c r="C229" t="n">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
       <c r="D229" t="n">
         <v>3.87</v>
       </c>
       <c r="E229" t="n">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
       <c r="F229" t="n">
-        <v>52340.4319</v>
+        <v>7617.1448</v>
       </c>
       <c r="G229" t="n">
-        <v>3.886000000000001</v>
+        <v>3.984166666666669</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="C230" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="D230" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="E230" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="F230" t="n">
-        <v>103967.4313</v>
+        <v>52340.4319</v>
       </c>
       <c r="G230" t="n">
-        <v>3.876</v>
+        <v>3.981500000000003</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,31 +8448,35 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="C231" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="D231" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="E231" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="F231" t="n">
-        <v>71911.0518</v>
+        <v>103967.4313</v>
       </c>
       <c r="G231" t="n">
-        <v>3.86</v>
+        <v>3.978833333333336</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K231" t="n">
+        <v>3.85</v>
+      </c>
       <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
@@ -8483,32 +8487,40 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="C232" t="n">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="D232" t="n">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="E232" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="F232" t="n">
-        <v>39748.9716</v>
+        <v>71911.0518</v>
       </c>
       <c r="G232" t="n">
-        <v>3.846</v>
+        <v>3.975666666666669</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K232" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8518,22 +8530,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
       <c r="C233" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="D233" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="E233" t="n">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
       <c r="F233" t="n">
-        <v>479437.1774</v>
+        <v>39748.9716</v>
       </c>
       <c r="G233" t="n">
-        <v>3.834</v>
+        <v>3.972166666666669</v>
       </c>
       <c r="H233" t="n">
         <v>1</v>
@@ -8542,12 +8554,16 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="K233" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="L233" t="inlineStr"/>
+        <v>3.85</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8560,19 +8576,19 @@
         <v>3.81</v>
       </c>
       <c r="C234" t="n">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="D234" t="n">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="E234" t="n">
         <v>3.81</v>
       </c>
       <c r="F234" t="n">
-        <v>633723.3842</v>
+        <v>479437.1774</v>
       </c>
       <c r="G234" t="n">
-        <v>3.834</v>
+        <v>3.969500000000003</v>
       </c>
       <c r="H234" t="n">
         <v>1</v>
@@ -8581,14 +8597,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="K234" t="n">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -8600,22 +8616,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="C235" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="D235" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="E235" t="n">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="F235" t="n">
-        <v>27057.6954</v>
+        <v>633723.3842</v>
       </c>
       <c r="G235" t="n">
-        <v>3.828</v>
+        <v>3.966500000000003</v>
       </c>
       <c r="H235" t="n">
         <v>1</v>
@@ -8624,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K235" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K235" t="n">
-        <v>3.82</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -8643,22 +8659,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="C236" t="n">
         <v>3.83</v>
       </c>
       <c r="D236" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="E236" t="n">
         <v>3.83</v>
       </c>
       <c r="F236" t="n">
-        <v>11794.3339</v>
+        <v>27057.6954</v>
       </c>
       <c r="G236" t="n">
-        <v>3.828</v>
+        <v>3.963000000000003</v>
       </c>
       <c r="H236" t="n">
         <v>1</v>
@@ -8667,10 +8683,10 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="K236" t="n">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -8689,19 +8705,19 @@
         <v>3.85</v>
       </c>
       <c r="C237" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="D237" t="n">
         <v>3.85</v>
       </c>
       <c r="E237" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="F237" t="n">
-        <v>100000</v>
+        <v>11794.3339</v>
       </c>
       <c r="G237" t="n">
-        <v>3.834000000000001</v>
+        <v>3.959333333333336</v>
       </c>
       <c r="H237" t="n">
         <v>1</v>
@@ -8713,7 +8729,7 @@
         <v>3.83</v>
       </c>
       <c r="K237" t="n">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -8741,10 +8757,10 @@
         <v>3.85</v>
       </c>
       <c r="F238" t="n">
-        <v>10175.8173</v>
+        <v>100000</v>
       </c>
       <c r="G238" t="n">
-        <v>3.842000000000001</v>
+        <v>3.956000000000003</v>
       </c>
       <c r="H238" t="n">
         <v>1</v>
@@ -8753,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K238" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K238" t="n">
-        <v>3.82</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -8767,6 +8783,49 @@
         <v>1</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F239" t="n">
+        <v>10175.8173</v>
+      </c>
+      <c r="G239" t="n">
+        <v>3.953166666666669</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K239" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest VET.xlsx
+++ b/BackTest/2019-10-26 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:N249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>12789.0025</v>
       </c>
       <c r="G2" t="n">
+        <v>3.907333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.888999999999998</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>137055.2876723785</v>
       </c>
       <c r="G3" t="n">
+        <v>3.908</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.890166666666664</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>144274.6355276215</v>
       </c>
       <c r="G4" t="n">
+        <v>3.910666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.890999999999997</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,25 @@
         <v>17500.2309</v>
       </c>
       <c r="G5" t="n">
+        <v>3.911333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.891999999999997</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +609,29 @@
         <v>13627.7623</v>
       </c>
       <c r="G6" t="n">
+        <v>3.912000000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.892499999999997</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +655,29 @@
         <v>52506.3938</v>
       </c>
       <c r="G7" t="n">
+        <v>3.912666666666668</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.892999999999998</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +701,29 @@
         <v>145487</v>
       </c>
       <c r="G8" t="n">
+        <v>3.913333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.893666666666664</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +747,29 @@
         <v>349000</v>
       </c>
       <c r="G9" t="n">
+        <v>3.914000000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.894166666666664</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +793,27 @@
         <v>8850.7106</v>
       </c>
       <c r="G10" t="n">
+        <v>3.914666666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.894666666666664</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +837,27 @@
         <v>10974.1739</v>
       </c>
       <c r="G11" t="n">
+        <v>3.914666666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.894999999999997</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +881,27 @@
         <v>27867.5211</v>
       </c>
       <c r="G12" t="n">
+        <v>3.916000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.895666666666664</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +925,27 @@
         <v>113977.0081</v>
       </c>
       <c r="G13" t="n">
+        <v>3.917333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.896333333333331</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +969,27 @@
         <v>77380.2458</v>
       </c>
       <c r="G14" t="n">
+        <v>3.918666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.896999999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1013,27 @@
         <v>9907.2086</v>
       </c>
       <c r="G15" t="n">
+        <v>3.919333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.897833333333331</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1057,27 @@
         <v>490735</v>
       </c>
       <c r="G16" t="n">
+        <v>3.922000000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.899166666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1101,27 @@
         <v>153880</v>
       </c>
       <c r="G17" t="n">
+        <v>3.924666666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.900333333333331</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1145,27 @@
         <v>209530.9446</v>
       </c>
       <c r="G18" t="n">
+        <v>3.928000000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.901666666666665</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1189,27 @@
         <v>312956.1082</v>
       </c>
       <c r="G19" t="n">
+        <v>3.932000000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.903166666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1233,27 @@
         <v>477099</v>
       </c>
       <c r="G20" t="n">
+        <v>3.936666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.904333333333331</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1277,27 @@
         <v>2464316.0763</v>
       </c>
       <c r="G21" t="n">
+        <v>3.942000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.905499999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1321,27 @@
         <v>1350961.9504</v>
       </c>
       <c r="G22" t="n">
+        <v>3.948000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.907499999999998</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1365,27 @@
         <v>601412.9342587065</v>
       </c>
       <c r="G23" t="n">
+        <v>3.954666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.909833333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1409,27 @@
         <v>415713.1258412935</v>
       </c>
       <c r="G24" t="n">
+        <v>3.960666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.911499999999998</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1453,27 @@
         <v>184794.6305</v>
       </c>
       <c r="G25" t="n">
+        <v>3.968666666666668</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.913666666666665</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1497,27 @@
         <v>660114.8768</v>
       </c>
       <c r="G26" t="n">
+        <v>3.978666666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.916166666666665</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1541,27 @@
         <v>489788.3618</v>
       </c>
       <c r="G27" t="n">
+        <v>3.987333333333335</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.919333333333332</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1585,27 @@
         <v>85918</v>
       </c>
       <c r="G28" t="n">
+        <v>3.993333333333335</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.921666666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1629,27 @@
         <v>19235</v>
       </c>
       <c r="G29" t="n">
+        <v>4.001333333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.924666666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1673,27 @@
         <v>49097.5</v>
       </c>
       <c r="G30" t="n">
+        <v>4.010000000000002</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.927333333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1717,27 @@
         <v>19235</v>
       </c>
       <c r="G31" t="n">
+        <v>4.016666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.930333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1761,27 @@
         <v>13812.4733</v>
       </c>
       <c r="G32" t="n">
+        <v>4.023333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.933166666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1805,27 @@
         <v>301666.0054</v>
       </c>
       <c r="G33" t="n">
+        <v>4.029333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.936</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1849,27 @@
         <v>57203.0366</v>
       </c>
       <c r="G34" t="n">
+        <v>4.035333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.9395</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1893,27 @@
         <v>10400.5791</v>
       </c>
       <c r="G35" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.942166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1937,27 @@
         <v>21529.8894</v>
       </c>
       <c r="G36" t="n">
+        <v>4.043333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.945166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1981,27 @@
         <v>255763.0541</v>
       </c>
       <c r="G37" t="n">
+        <v>4.047333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.948333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2025,27 @@
         <v>1231.527</v>
       </c>
       <c r="G38" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.951333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2069,27 @@
         <v>4152.1551</v>
       </c>
       <c r="G39" t="n">
+        <v>4.052</v>
+      </c>
+      <c r="H39" t="n">
         <v>3.954333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2113,27 @@
         <v>1772.66</v>
       </c>
       <c r="G40" t="n">
+        <v>4.052</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.957333333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2157,27 @@
         <v>68660.15829852216</v>
       </c>
       <c r="G41" t="n">
+        <v>4.052</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.960333333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2201,27 @@
         <v>19235</v>
       </c>
       <c r="G42" t="n">
+        <v>4.052</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.963333333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2245,27 @@
         <v>14155</v>
       </c>
       <c r="G43" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.966666666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2289,27 @@
         <v>382363</v>
       </c>
       <c r="G44" t="n">
+        <v>4.059333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.970333333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2333,27 @@
         <v>698031.4451014778</v>
       </c>
       <c r="G45" t="n">
+        <v>4.065333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.974500000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2377,27 @@
         <v>92908</v>
       </c>
       <c r="G46" t="n">
+        <v>4.071333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.979000000000001</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2421,27 @@
         <v>37573.0582</v>
       </c>
       <c r="G47" t="n">
+        <v>4.076000000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>3.982833333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2465,27 @@
         <v>156.3855</v>
       </c>
       <c r="G48" t="n">
+        <v>4.080000000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.986333333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2509,27 @@
         <v>156.3855</v>
       </c>
       <c r="G49" t="n">
+        <v>4.084000000000001</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.990500000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2553,27 @@
         <v>7599.1767</v>
       </c>
       <c r="G50" t="n">
+        <v>4.089333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.994333333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2597,27 @@
         <v>447961.5546</v>
       </c>
       <c r="G51" t="n">
+        <v>4.096000000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.998333333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2641,27 @@
         <v>738652.1848</v>
       </c>
       <c r="G52" t="n">
+        <v>4.102666666666668</v>
+      </c>
+      <c r="H52" t="n">
         <v>4.002666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2685,27 @@
         <v>230000</v>
       </c>
       <c r="G53" t="n">
+        <v>4.111333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>4.007333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2729,27 @@
         <v>458204.4815</v>
       </c>
       <c r="G54" t="n">
+        <v>4.120666666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>4.011833333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2773,27 @@
         <v>103823.5902</v>
       </c>
       <c r="G55" t="n">
+        <v>4.129333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.016166666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2817,27 @@
         <v>10509.30787589499</v>
       </c>
       <c r="G56" t="n">
+        <v>4.138666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>4.021</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2861,27 @@
         <v>388702.7684</v>
       </c>
       <c r="G57" t="n">
+        <v>4.147333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>4.025666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,19 +2905,28 @@
         <v>518441.6904</v>
       </c>
       <c r="G58" t="n">
+        <v>4.153333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>4.029999999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
+      <c r="L58" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>1.061496163682865</v>
       </c>
     </row>
     <row r="59">
@@ -2443,18 +2949,21 @@
         <v>714115.6181</v>
       </c>
       <c r="G59" t="n">
+        <v>4.158</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.034333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2987,21 @@
         <v>530033.373</v>
       </c>
       <c r="G60" t="n">
+        <v>4.159333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>4.0385</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3025,21 @@
         <v>10100</v>
       </c>
       <c r="G61" t="n">
+        <v>4.164666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>4.043666666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3063,21 @@
         <v>393597</v>
       </c>
       <c r="G62" t="n">
+        <v>4.172000000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>4.048999999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3101,21 @@
         <v>1340920.4749</v>
       </c>
       <c r="G63" t="n">
+        <v>4.181333333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>4.054666666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3139,21 @@
         <v>645140.4277999999</v>
       </c>
       <c r="G64" t="n">
+        <v>4.189333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>4.060166666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3177,21 @@
         <v>10000</v>
       </c>
       <c r="G65" t="n">
+        <v>4.194</v>
+      </c>
+      <c r="H65" t="n">
         <v>4.065</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3215,21 @@
         <v>27882.1428</v>
       </c>
       <c r="G66" t="n">
+        <v>4.198</v>
+      </c>
+      <c r="H66" t="n">
         <v>4.069833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3253,21 @@
         <v>7574.7535</v>
       </c>
       <c r="G67" t="n">
+        <v>4.197333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>4.073833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3291,21 @@
         <v>38480.6956</v>
       </c>
       <c r="G68" t="n">
+        <v>4.194666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>4.077666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3329,21 @@
         <v>17229.16</v>
       </c>
       <c r="G69" t="n">
+        <v>4.192666666666668</v>
+      </c>
+      <c r="H69" t="n">
         <v>4.0815</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3367,21 @@
         <v>88516.7464</v>
       </c>
       <c r="G70" t="n">
+        <v>4.192000000000002</v>
+      </c>
+      <c r="H70" t="n">
         <v>4.0855</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3405,21 @@
         <v>29490.4197</v>
       </c>
       <c r="G71" t="n">
+        <v>4.188666666666668</v>
+      </c>
+      <c r="H71" t="n">
         <v>4.0895</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3443,21 @@
         <v>85355.47840000001</v>
       </c>
       <c r="G72" t="n">
+        <v>4.182666666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>4.092333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3481,21 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
+        <v>4.182000000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>4.096166666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3519,21 @@
         <v>156010</v>
       </c>
       <c r="G74" t="n">
+        <v>4.184000000000001</v>
+      </c>
+      <c r="H74" t="n">
         <v>4.100666666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3557,21 @@
         <v>10466.8817</v>
       </c>
       <c r="G75" t="n">
+        <v>4.182666666666668</v>
+      </c>
+      <c r="H75" t="n">
         <v>4.104333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3595,21 @@
         <v>210220.1149</v>
       </c>
       <c r="G76" t="n">
+        <v>4.181333333333336</v>
+      </c>
+      <c r="H76" t="n">
         <v>4.108499999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3633,21 @@
         <v>31244.8356</v>
       </c>
       <c r="G77" t="n">
+        <v>4.179333333333335</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.112666666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3671,21 @@
         <v>259429.0512</v>
       </c>
       <c r="G78" t="n">
+        <v>4.172000000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>4.115666666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3709,21 @@
         <v>588148.7478</v>
       </c>
       <c r="G79" t="n">
+        <v>4.164666666666668</v>
+      </c>
+      <c r="H79" t="n">
         <v>4.118333333333332</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3747,21 @@
         <v>108788.3815</v>
       </c>
       <c r="G80" t="n">
+        <v>4.160000000000001</v>
+      </c>
+      <c r="H80" t="n">
         <v>4.120833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3785,21 @@
         <v>408816</v>
       </c>
       <c r="G81" t="n">
+        <v>4.159333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>4.124166666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3823,21 @@
         <v>96277.09110000001</v>
       </c>
       <c r="G82" t="n">
+        <v>4.161333333333335</v>
+      </c>
+      <c r="H82" t="n">
         <v>4.127166666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3861,21 @@
         <v>48696.5326</v>
       </c>
       <c r="G83" t="n">
+        <v>4.163333333333335</v>
+      </c>
+      <c r="H83" t="n">
         <v>4.129833333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3899,21 @@
         <v>79605.47689999999</v>
       </c>
       <c r="G84" t="n">
+        <v>4.163333333333335</v>
+      </c>
+      <c r="H84" t="n">
         <v>4.132166666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3937,21 @@
         <v>10000</v>
       </c>
       <c r="G85" t="n">
+        <v>4.162666666666668</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.133999999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3975,21 @@
         <v>66089</v>
       </c>
       <c r="G86" t="n">
+        <v>4.164000000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.135833333333331</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4013,21 @@
         <v>980020.1621</v>
       </c>
       <c r="G87" t="n">
+        <v>4.168666666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.137666666666664</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4051,21 @@
         <v>173349.62</v>
       </c>
       <c r="G88" t="n">
+        <v>4.170000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>4.140333333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4089,21 @@
         <v>25579.6239</v>
       </c>
       <c r="G89" t="n">
+        <v>4.168666666666668</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.142499999999997</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4127,21 @@
         <v>117327.3232</v>
       </c>
       <c r="G90" t="n">
+        <v>4.170000000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.144333333333331</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4165,21 @@
         <v>67281.5178</v>
       </c>
       <c r="G91" t="n">
+        <v>4.167333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.146166666666664</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4203,21 @@
         <v>22482.0143</v>
       </c>
       <c r="G92" t="n">
+        <v>4.165333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.148166666666664</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4241,21 @@
         <v>567501.0146</v>
       </c>
       <c r="G93" t="n">
+        <v>4.165333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.149666666666663</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4279,21 @@
         <v>251373.845</v>
       </c>
       <c r="G94" t="n">
+        <v>4.168</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.151499999999996</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4317,21 @@
         <v>35271</v>
       </c>
       <c r="G95" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.15333333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4355,21 @@
         <v>11322</v>
       </c>
       <c r="G96" t="n">
+        <v>4.168666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.155499999999996</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4393,21 @@
         <v>29681.2733</v>
       </c>
       <c r="G97" t="n">
+        <v>4.167333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>4.157166666666662</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4431,21 @@
         <v>6900</v>
       </c>
       <c r="G98" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="H98" t="n">
         <v>4.158833333333329</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4469,21 @@
         <v>147355</v>
       </c>
       <c r="G99" t="n">
+        <v>4.165333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>4.160499999999995</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4507,21 @@
         <v>94008.8653</v>
       </c>
       <c r="G100" t="n">
+        <v>4.164666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>4.162166666666662</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4545,21 @@
         <v>54260.2104</v>
       </c>
       <c r="G101" t="n">
+        <v>4.164666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.163999999999995</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4583,21 @@
         <v>230</v>
       </c>
       <c r="G102" t="n">
+        <v>4.164666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.165833333333328</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4621,21 @@
         <v>124216.2327</v>
       </c>
       <c r="G103" t="n">
+        <v>4.160666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>4.166499999999995</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4659,21 @@
         <v>238315.512</v>
       </c>
       <c r="G104" t="n">
+        <v>4.155333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>4.166499999999995</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4697,21 @@
         <v>573700</v>
       </c>
       <c r="G105" t="n">
+        <v>4.146666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>4.164666666666662</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4735,21 @@
         <v>27400</v>
       </c>
       <c r="G106" t="n">
+        <v>4.139333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>4.163166666666663</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4773,21 @@
         <v>50429.9224</v>
       </c>
       <c r="G107" t="n">
+        <v>4.132000000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>4.162166666666662</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4811,21 @@
         <v>99885.7179</v>
       </c>
       <c r="G108" t="n">
+        <v>4.126666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>4.161333333333329</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4849,21 @@
         <v>24657.0199</v>
       </c>
       <c r="G109" t="n">
+        <v>4.116666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>4.159666666666662</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4887,21 @@
         <v>50</v>
       </c>
       <c r="G110" t="n">
+        <v>4.107333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>4.157833333333329</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4925,21 @@
         <v>36080.1606</v>
       </c>
       <c r="G111" t="n">
+        <v>4.097333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.155833333333329</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4963,21 @@
         <v>382898.3704</v>
       </c>
       <c r="G112" t="n">
+        <v>4.084666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>4.152666666666663</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +5001,21 @@
         <v>23040.5028</v>
       </c>
       <c r="G113" t="n">
+        <v>4.072666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>4.149166666666662</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5039,21 @@
         <v>48341.5971</v>
       </c>
       <c r="G114" t="n">
+        <v>4.060666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>4.145499999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5077,21 @@
         <v>137673.7538</v>
       </c>
       <c r="G115" t="n">
+        <v>4.049333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>4.142166666666663</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5115,21 @@
         <v>246252.2903</v>
       </c>
       <c r="G116" t="n">
+        <v>4.038666666666668</v>
+      </c>
+      <c r="H116" t="n">
         <v>4.138999999999997</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5153,21 @@
         <v>4137.8876</v>
       </c>
       <c r="G117" t="n">
+        <v>4.026000000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>4.135499999999996</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5191,21 @@
         <v>60000</v>
       </c>
       <c r="G118" t="n">
+        <v>4.017333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>4.132499999999997</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5229,21 @@
         <v>349.125</v>
       </c>
       <c r="G119" t="n">
+        <v>4.008666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>4.129166666666664</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5267,21 @@
         <v>1752.5047</v>
       </c>
       <c r="G120" t="n">
+        <v>4.004666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>4.125999999999997</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5305,21 @@
         <v>5481</v>
       </c>
       <c r="G121" t="n">
+        <v>3.999333333333335</v>
+      </c>
+      <c r="H121" t="n">
         <v>4.12183333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5343,21 @@
         <v>37766.4953</v>
       </c>
       <c r="G122" t="n">
+        <v>3.993333333333335</v>
+      </c>
+      <c r="H122" t="n">
         <v>4.117499999999997</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5381,21 @@
         <v>168953.5922</v>
       </c>
       <c r="G123" t="n">
+        <v>3.984666666666668</v>
+      </c>
+      <c r="H123" t="n">
         <v>4.112166666666663</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5419,21 @@
         <v>32578.92</v>
       </c>
       <c r="G124" t="n">
+        <v>3.978666666666668</v>
+      </c>
+      <c r="H124" t="n">
         <v>4.106999999999997</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5457,21 @@
         <v>50000</v>
       </c>
       <c r="G125" t="n">
+        <v>3.971333333333335</v>
+      </c>
+      <c r="H125" t="n">
         <v>4.102166666666664</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5495,21 @@
         <v>784341.4783</v>
       </c>
       <c r="G126" t="n">
+        <v>3.965333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>4.097666666666664</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5533,21 @@
         <v>51097</v>
       </c>
       <c r="G127" t="n">
+        <v>3.962666666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>4.093999999999998</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5571,21 @@
         <v>15571.9697</v>
       </c>
       <c r="G128" t="n">
+        <v>3.962666666666668</v>
+      </c>
+      <c r="H128" t="n">
         <v>4.091166666666664</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5609,21 @@
         <v>115463.6773</v>
       </c>
       <c r="G129" t="n">
+        <v>3.959333333333335</v>
+      </c>
+      <c r="H129" t="n">
         <v>4.087166666666664</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5647,21 @@
         <v>29980</v>
       </c>
       <c r="G130" t="n">
+        <v>3.955333333333335</v>
+      </c>
+      <c r="H130" t="n">
         <v>4.082999999999998</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5685,21 @@
         <v>16030.1756</v>
       </c>
       <c r="G131" t="n">
+        <v>3.950000000000002</v>
+      </c>
+      <c r="H131" t="n">
         <v>4.079333333333331</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5723,21 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
+        <v>3.949333333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>4.077166666666664</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5761,21 @@
         <v>51975</v>
       </c>
       <c r="G133" t="n">
+        <v>3.947333333333335</v>
+      </c>
+      <c r="H133" t="n">
         <v>4.073833333333331</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5799,21 @@
         <v>20536</v>
       </c>
       <c r="G134" t="n">
+        <v>3.947333333333335</v>
+      </c>
+      <c r="H134" t="n">
         <v>4.069999999999998</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5837,21 @@
         <v>63048.8257</v>
       </c>
       <c r="G135" t="n">
+        <v>3.947333333333335</v>
+      </c>
+      <c r="H135" t="n">
         <v>4.067166666666664</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5875,21 @@
         <v>428000</v>
       </c>
       <c r="G136" t="n">
+        <v>3.947333333333335</v>
+      </c>
+      <c r="H136" t="n">
         <v>4.063333333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5913,21 @@
         <v>6839.4145</v>
       </c>
       <c r="G137" t="n">
+        <v>3.945333333333335</v>
+      </c>
+      <c r="H137" t="n">
         <v>4.058999999999998</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5951,21 @@
         <v>100000</v>
       </c>
       <c r="G138" t="n">
+        <v>3.946000000000001</v>
+      </c>
+      <c r="H138" t="n">
         <v>4.055666666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5989,21 @@
         <v>411356.5894</v>
       </c>
       <c r="G139" t="n">
+        <v>3.944000000000001</v>
+      </c>
+      <c r="H139" t="n">
         <v>4.051833333333332</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6027,21 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
+        <v>3.945333333333335</v>
+      </c>
+      <c r="H140" t="n">
         <v>4.048499999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6065,21 @@
         <v>12487</v>
       </c>
       <c r="G141" t="n">
+        <v>3.943333333333335</v>
+      </c>
+      <c r="H141" t="n">
         <v>4.043666666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6103,21 @@
         <v>4380</v>
       </c>
       <c r="G142" t="n">
+        <v>3.942000000000001</v>
+      </c>
+      <c r="H142" t="n">
         <v>4.039166666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6141,21 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
+        <v>3.939333333333335</v>
+      </c>
+      <c r="H143" t="n">
         <v>4.035166666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6179,21 @@
         <v>81895</v>
       </c>
       <c r="G144" t="n">
+        <v>3.940000000000001</v>
+      </c>
+      <c r="H144" t="n">
         <v>4.031333333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6217,21 @@
         <v>986042.1822</v>
       </c>
       <c r="G145" t="n">
+        <v>3.942666666666668</v>
+      </c>
+      <c r="H145" t="n">
         <v>4.028</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6255,21 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
+        <v>3.946000000000001</v>
+      </c>
+      <c r="H146" t="n">
         <v>4.024833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6293,21 @@
         <v>314.1363</v>
       </c>
       <c r="G147" t="n">
+        <v>3.943333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>4.020833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6331,21 @@
         <v>314</v>
       </c>
       <c r="G148" t="n">
+        <v>3.942666666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>4.016999999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6369,21 @@
         <v>398668</v>
       </c>
       <c r="G149" t="n">
+        <v>3.942000000000001</v>
+      </c>
+      <c r="H149" t="n">
         <v>4.013333333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6407,21 @@
         <v>2193566</v>
       </c>
       <c r="G150" t="n">
+        <v>3.938666666666668</v>
+      </c>
+      <c r="H150" t="n">
         <v>4.009333333333332</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6445,21 @@
         <v>585044.8014</v>
       </c>
       <c r="G151" t="n">
+        <v>3.938000000000001</v>
+      </c>
+      <c r="H151" t="n">
         <v>4.005999999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6483,21 @@
         <v>428000</v>
       </c>
       <c r="G152" t="n">
+        <v>3.939333333333335</v>
+      </c>
+      <c r="H152" t="n">
         <v>4.0025</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6521,21 @@
         <v>10000</v>
       </c>
       <c r="G153" t="n">
+        <v>3.940666666666668</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.9995</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6559,21 @@
         <v>146612.7474</v>
       </c>
       <c r="G154" t="n">
+        <v>3.944666666666669</v>
+      </c>
+      <c r="H154" t="n">
         <v>3.996</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6597,21 @@
         <v>1366976.597</v>
       </c>
       <c r="G155" t="n">
+        <v>3.946666666666669</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.992666666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6635,21 @@
         <v>80372.16800000001</v>
       </c>
       <c r="G156" t="n">
+        <v>3.950666666666669</v>
+      </c>
+      <c r="H156" t="n">
         <v>3.989166666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6673,21 @@
         <v>462760.8108</v>
       </c>
       <c r="G157" t="n">
+        <v>3.954000000000002</v>
+      </c>
+      <c r="H157" t="n">
         <v>3.985833333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6711,21 @@
         <v>46095.2317</v>
       </c>
       <c r="G158" t="n">
+        <v>3.955333333333336</v>
+      </c>
+      <c r="H158" t="n">
         <v>3.982500000000001</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6749,21 @@
         <v>811.2492999999999</v>
       </c>
       <c r="G159" t="n">
+        <v>3.956666666666669</v>
+      </c>
+      <c r="H159" t="n">
         <v>3.979166666666668</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6787,21 @@
         <v>427811.2493</v>
       </c>
       <c r="G160" t="n">
+        <v>3.957333333333336</v>
+      </c>
+      <c r="H160" t="n">
         <v>3.976166666666668</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6825,21 @@
         <v>104985.5514</v>
       </c>
       <c r="G161" t="n">
+        <v>3.957333333333336</v>
+      </c>
+      <c r="H161" t="n">
         <v>3.973000000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6863,21 @@
         <v>136650.1534</v>
       </c>
       <c r="G162" t="n">
+        <v>3.960666666666669</v>
+      </c>
+      <c r="H162" t="n">
         <v>3.969833333333335</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6901,21 @@
         <v>32132.1981</v>
       </c>
       <c r="G163" t="n">
+        <v>3.962666666666669</v>
+      </c>
+      <c r="H163" t="n">
         <v>3.967500000000001</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6939,21 @@
         <v>45615</v>
       </c>
       <c r="G164" t="n">
+        <v>3.965333333333335</v>
+      </c>
+      <c r="H164" t="n">
         <v>3.965833333333335</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6977,21 @@
         <v>6900</v>
       </c>
       <c r="G165" t="n">
+        <v>3.970000000000002</v>
+      </c>
+      <c r="H165" t="n">
         <v>3.965166666666668</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7015,21 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
+        <v>3.972666666666668</v>
+      </c>
+      <c r="H166" t="n">
         <v>3.964333333333335</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7053,21 @@
         <v>5052</v>
       </c>
       <c r="G167" t="n">
+        <v>3.976666666666668</v>
+      </c>
+      <c r="H167" t="n">
         <v>3.963666666666668</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7091,21 @@
         <v>37816</v>
       </c>
       <c r="G168" t="n">
+        <v>3.982666666666668</v>
+      </c>
+      <c r="H168" t="n">
         <v>3.963500000000002</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7129,21 @@
         <v>16932.3037</v>
       </c>
       <c r="G169" t="n">
+        <v>3.983333333333335</v>
+      </c>
+      <c r="H169" t="n">
         <v>3.962666666666668</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7167,21 @@
         <v>1190</v>
       </c>
       <c r="G170" t="n">
+        <v>3.986666666666668</v>
+      </c>
+      <c r="H170" t="n">
         <v>3.962500000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7205,21 @@
         <v>10</v>
       </c>
       <c r="G171" t="n">
+        <v>3.990666666666668</v>
+      </c>
+      <c r="H171" t="n">
         <v>3.962500000000001</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7243,21 @@
         <v>246268.6567</v>
       </c>
       <c r="G172" t="n">
+        <v>3.994666666666668</v>
+      </c>
+      <c r="H172" t="n">
         <v>3.963333333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7281,21 @@
         <v>10</v>
       </c>
       <c r="G173" t="n">
+        <v>3.999333333333335</v>
+      </c>
+      <c r="H173" t="n">
         <v>3.964166666666668</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7319,21 @@
         <v>27.93</v>
       </c>
       <c r="G174" t="n">
+        <v>4.000000000000002</v>
+      </c>
+      <c r="H174" t="n">
         <v>3.964000000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7357,21 @@
         <v>10</v>
       </c>
       <c r="G175" t="n">
+        <v>4.003333333333335</v>
+      </c>
+      <c r="H175" t="n">
         <v>3.964666666666668</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7395,21 @@
         <v>350000</v>
       </c>
       <c r="G176" t="n">
+        <v>4.007333333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>3.965166666666668</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7433,21 @@
         <v>10</v>
       </c>
       <c r="G177" t="n">
+        <v>4.012000000000002</v>
+      </c>
+      <c r="H177" t="n">
         <v>3.966333333333335</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7471,21 @@
         <v>37618.5115</v>
       </c>
       <c r="G178" t="n">
+        <v>4.016666666666669</v>
+      </c>
+      <c r="H178" t="n">
         <v>3.967333333333335</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7509,21 @@
         <v>52351.075</v>
       </c>
       <c r="G179" t="n">
+        <v>4.018000000000002</v>
+      </c>
+      <c r="H179" t="n">
         <v>3.968166666666669</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7547,21 @@
         <v>56442.9051</v>
       </c>
       <c r="G180" t="n">
+        <v>4.020000000000002</v>
+      </c>
+      <c r="H180" t="n">
         <v>3.969000000000002</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7585,21 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
+        <v>4.022666666666669</v>
+      </c>
+      <c r="H181" t="n">
         <v>3.970166666666669</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7623,21 @@
         <v>12585.6811</v>
       </c>
       <c r="G182" t="n">
+        <v>4.021333333333335</v>
+      </c>
+      <c r="H182" t="n">
         <v>3.970666666666669</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7661,21 @@
         <v>10</v>
       </c>
       <c r="G183" t="n">
+        <v>4.019333333333336</v>
+      </c>
+      <c r="H183" t="n">
         <v>3.972166666666669</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7699,21 @@
         <v>122530.0289</v>
       </c>
       <c r="G184" t="n">
+        <v>4.021333333333335</v>
+      </c>
+      <c r="H184" t="n">
         <v>3.973333333333335</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7737,21 @@
         <v>10</v>
       </c>
       <c r="G185" t="n">
+        <v>4.022000000000002</v>
+      </c>
+      <c r="H185" t="n">
         <v>3.975166666666669</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7775,21 @@
         <v>50010</v>
       </c>
       <c r="G186" t="n">
+        <v>4.022000000000003</v>
+      </c>
+      <c r="H186" t="n">
         <v>3.976666666666669</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7813,21 @@
         <v>2384.29</v>
       </c>
       <c r="G187" t="n">
+        <v>4.02066666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>3.977833333333336</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7851,21 @@
         <v>81603.52650000001</v>
       </c>
       <c r="G188" t="n">
+        <v>4.018000000000002</v>
+      </c>
+      <c r="H188" t="n">
         <v>3.978000000000002</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7889,21 @@
         <v>2326.0375</v>
       </c>
       <c r="G189" t="n">
+        <v>4.019333333333336</v>
+      </c>
+      <c r="H189" t="n">
         <v>3.979000000000002</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7927,21 @@
         <v>50000</v>
       </c>
       <c r="G190" t="n">
+        <v>4.016666666666668</v>
+      </c>
+      <c r="H190" t="n">
         <v>3.980000000000003</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7965,21 @@
         <v>23.75</v>
       </c>
       <c r="G191" t="n">
+        <v>4.014000000000002</v>
+      </c>
+      <c r="H191" t="n">
         <v>3.981166666666669</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +8003,21 @@
         <v>11540</v>
       </c>
       <c r="G192" t="n">
+        <v>4.010000000000002</v>
+      </c>
+      <c r="H192" t="n">
         <v>3.981500000000003</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +8041,21 @@
         <v>10</v>
       </c>
       <c r="G193" t="n">
+        <v>4.006666666666669</v>
+      </c>
+      <c r="H193" t="n">
         <v>3.982166666666669</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8079,21 @@
         <v>17973.8075</v>
       </c>
       <c r="G194" t="n">
+        <v>4.005333333333336</v>
+      </c>
+      <c r="H194" t="n">
         <v>3.982666666666669</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8117,21 @@
         <v>12</v>
       </c>
       <c r="G195" t="n">
+        <v>4.005333333333336</v>
+      </c>
+      <c r="H195" t="n">
         <v>3.983500000000002</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8155,21 @@
         <v>93418.87179999999</v>
       </c>
       <c r="G196" t="n">
+        <v>4.002666666666669</v>
+      </c>
+      <c r="H196" t="n">
         <v>3.984000000000003</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8193,21 @@
         <v>12</v>
       </c>
       <c r="G197" t="n">
+        <v>4.004000000000003</v>
+      </c>
+      <c r="H197" t="n">
         <v>3.985333333333336</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8231,21 @@
         <v>18834.5594</v>
       </c>
       <c r="G198" t="n">
+        <v>4.004000000000003</v>
+      </c>
+      <c r="H198" t="n">
         <v>3.98666666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8269,21 @@
         <v>257408.37</v>
       </c>
       <c r="G199" t="n">
+        <v>4.006000000000003</v>
+      </c>
+      <c r="H199" t="n">
         <v>3.988833333333337</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8307,21 @@
         <v>323.383</v>
       </c>
       <c r="G200" t="n">
+        <v>4.006000000000003</v>
+      </c>
+      <c r="H200" t="n">
         <v>3.990333333333337</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8345,21 @@
         <v>1430.7213</v>
       </c>
       <c r="G201" t="n">
+        <v>4.006000000000003</v>
+      </c>
+      <c r="H201" t="n">
         <v>3.992333333333336</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8383,21 @@
         <v>158.1135</v>
       </c>
       <c r="G202" t="n">
+        <v>4.007333333333336</v>
+      </c>
+      <c r="H202" t="n">
         <v>3.99416666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8421,21 @@
         <v>752.7363184079602</v>
       </c>
       <c r="G203" t="n">
+        <v>4.009333333333336</v>
+      </c>
+      <c r="H203" t="n">
         <v>3.995500000000004</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8459,21 @@
         <v>19686.9548</v>
       </c>
       <c r="G204" t="n">
+        <v>4.008666666666668</v>
+      </c>
+      <c r="H204" t="n">
         <v>3.99616666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8497,21 @@
         <v>170378.9992</v>
       </c>
       <c r="G205" t="n">
+        <v>4.008000000000002</v>
+      </c>
+      <c r="H205" t="n">
         <v>3.996333333333337</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8535,21 @@
         <v>10</v>
       </c>
       <c r="G206" t="n">
+        <v>4.009333333333335</v>
+      </c>
+      <c r="H206" t="n">
         <v>3.997000000000004</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8573,21 @@
         <v>7677.2948</v>
       </c>
       <c r="G207" t="n">
+        <v>4.008666666666668</v>
+      </c>
+      <c r="H207" t="n">
         <v>3.997833333333337</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8611,21 @@
         <v>67848.74679999999</v>
       </c>
       <c r="G208" t="n">
+        <v>4.008666666666668</v>
+      </c>
+      <c r="H208" t="n">
         <v>3.99866666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8649,27 @@
         <v>204812.7597</v>
       </c>
       <c r="G209" t="n">
+        <v>4.008000000000001</v>
+      </c>
+      <c r="H209" t="n">
         <v>3.99916666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>4</v>
+      </c>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8693,25 @@
         <v>5103.7758</v>
       </c>
       <c r="G210" t="n">
+        <v>4.006000000000001</v>
+      </c>
+      <c r="H210" t="n">
         <v>4.000333333333337</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8735,27 @@
         <v>31254.8356</v>
       </c>
       <c r="G211" t="n">
+        <v>4.006666666666669</v>
+      </c>
+      <c r="H211" t="n">
         <v>4.001166666666671</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>3.99</v>
+      </c>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8779,27 @@
         <v>344.4723</v>
       </c>
       <c r="G212" t="n">
+        <v>4.004000000000002</v>
+      </c>
+      <c r="H212" t="n">
         <v>4.001500000000004</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>4.01</v>
+      </c>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8823,27 @@
         <v>125607.6452</v>
       </c>
       <c r="G213" t="n">
+        <v>3.998666666666669</v>
+      </c>
+      <c r="H213" t="n">
         <v>4.00116666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>3.98</v>
+      </c>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8867,27 @@
         <v>36510.4411</v>
       </c>
       <c r="G214" t="n">
+        <v>3.992666666666669</v>
+      </c>
+      <c r="H214" t="n">
         <v>4.000833333333336</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>3.94</v>
+      </c>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8911,27 @@
         <v>37881.9137</v>
       </c>
       <c r="G215" t="n">
+        <v>3.987333333333335</v>
+      </c>
+      <c r="H215" t="n">
         <v>4.000500000000003</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>3.94</v>
+      </c>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8955,27 @@
         <v>10</v>
       </c>
       <c r="G216" t="n">
+        <v>3.984000000000002</v>
+      </c>
+      <c r="H216" t="n">
         <v>4.000666666666669</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>3.94</v>
+      </c>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8999,27 @@
         <v>11621.9592</v>
       </c>
       <c r="G217" t="n">
+        <v>3.978000000000002</v>
+      </c>
+      <c r="H217" t="n">
         <v>4.00016666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>3.97</v>
+      </c>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +9043,27 @@
         <v>29742.5655</v>
       </c>
       <c r="G218" t="n">
+        <v>3.972000000000002</v>
+      </c>
+      <c r="H218" t="n">
         <v>3.999666666666669</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>3.93</v>
+      </c>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +9087,27 @@
         <v>198044.7164</v>
       </c>
       <c r="G219" t="n">
+        <v>3.967333333333335</v>
+      </c>
+      <c r="H219" t="n">
         <v>3.998833333333336</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>3.93</v>
+      </c>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +9131,27 @@
         <v>17865.7032</v>
       </c>
       <c r="G220" t="n">
+        <v>3.962666666666669</v>
+      </c>
+      <c r="H220" t="n">
         <v>3.997666666666669</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>3.91</v>
+      </c>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +9175,27 @@
         <v>130000.3277</v>
       </c>
       <c r="G221" t="n">
+        <v>3.954666666666669</v>
+      </c>
+      <c r="H221" t="n">
         <v>3.996333333333336</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>3.91</v>
+      </c>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +9219,27 @@
         <v>0.6723</v>
       </c>
       <c r="G222" t="n">
+        <v>3.949333333333336</v>
+      </c>
+      <c r="H222" t="n">
         <v>3.995000000000003</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>3.9</v>
+      </c>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +9263,27 @@
         <v>2618.1037</v>
       </c>
       <c r="G223" t="n">
+        <v>3.942666666666669</v>
+      </c>
+      <c r="H223" t="n">
         <v>3.99366666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>3.9</v>
+      </c>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +9307,27 @@
         <v>604026.2426</v>
       </c>
       <c r="G224" t="n">
+        <v>3.941333333333335</v>
+      </c>
+      <c r="H224" t="n">
         <v>3.99316666666667</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>3.9</v>
+      </c>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +9351,25 @@
         <v>6558.701</v>
       </c>
       <c r="G225" t="n">
+        <v>3.936000000000002</v>
+      </c>
+      <c r="H225" t="n">
         <v>3.991833333333337</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +9393,25 @@
         <v>2000</v>
       </c>
       <c r="G226" t="n">
+        <v>3.929333333333335</v>
+      </c>
+      <c r="H226" t="n">
         <v>3.990333333333337</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9435,27 @@
         <v>53842.5946</v>
       </c>
       <c r="G227" t="n">
+        <v>3.924666666666669</v>
+      </c>
+      <c r="H227" t="n">
         <v>3.988500000000003</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>3.91</v>
+      </c>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9479,25 @@
         <v>19227.8791</v>
       </c>
       <c r="G228" t="n">
+        <v>3.921333333333336</v>
+      </c>
+      <c r="H228" t="n">
         <v>3.985833333333336</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9521,25 @@
         <v>7617.1448</v>
       </c>
       <c r="G229" t="n">
+        <v>3.91666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>3.984166666666669</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9563,25 @@
         <v>52340.4319</v>
       </c>
       <c r="G230" t="n">
+        <v>3.91066666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>3.981500000000003</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,22 +9605,25 @@
         <v>103967.4313</v>
       </c>
       <c r="G231" t="n">
+        <v>3.903333333333336</v>
+      </c>
+      <c r="H231" t="n">
         <v>3.978833333333336</v>
       </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K231" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8502,26 +9647,25 @@
         <v>71911.0518</v>
       </c>
       <c r="G232" t="n">
+        <v>3.89666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>3.975666666666669</v>
       </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K232" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8545,26 +9689,25 @@
         <v>39748.9716</v>
       </c>
       <c r="G233" t="n">
+        <v>3.889333333333336</v>
+      </c>
+      <c r="H233" t="n">
         <v>3.972166666666669</v>
       </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="K233" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8588,26 +9731,27 @@
         <v>479437.1774</v>
       </c>
       <c r="G234" t="n">
+        <v>3.88266666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>3.969500000000003</v>
       </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
         <v>3.82</v>
       </c>
-      <c r="K234" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8631,26 +9775,27 @@
         <v>633723.3842</v>
       </c>
       <c r="G235" t="n">
+        <v>3.87866666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>3.966500000000003</v>
       </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
         <v>3.81</v>
       </c>
-      <c r="K235" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8674,26 +9819,25 @@
         <v>27057.6954</v>
       </c>
       <c r="G236" t="n">
+        <v>3.874000000000003</v>
+      </c>
+      <c r="H236" t="n">
         <v>3.963000000000003</v>
       </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K236" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L236" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8717,26 +9861,27 @@
         <v>11794.3339</v>
       </c>
       <c r="G237" t="n">
+        <v>3.869333333333337</v>
+      </c>
+      <c r="H237" t="n">
         <v>3.959333333333336</v>
       </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
         <v>3.83</v>
       </c>
-      <c r="K237" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8760,26 +9905,27 @@
         <v>100000</v>
       </c>
       <c r="G238" t="n">
+        <v>3.866000000000004</v>
+      </c>
+      <c r="H238" t="n">
         <v>3.956000000000003</v>
       </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
         <v>3.83</v>
       </c>
-      <c r="K238" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8803,26 +9949,449 @@
         <v>10175.8173</v>
       </c>
       <c r="G239" t="n">
+        <v>3.858000000000004</v>
+      </c>
+      <c r="H239" t="n">
         <v>3.953166666666669</v>
       </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="K239" t="n">
         <v>3.85</v>
       </c>
-      <c r="L239" t="inlineStr">
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C240" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F240" t="n">
+        <v>109610.836</v>
+      </c>
+      <c r="G240" t="n">
+        <v>3.854000000000004</v>
+      </c>
+      <c r="H240" t="n">
+        <v>3.950333333333335</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E241" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F241" t="n">
+        <v>49244</v>
+      </c>
+      <c r="G241" t="n">
+        <v>3.850000000000004</v>
+      </c>
+      <c r="H241" t="n">
+        <v>3.947166666666669</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E242" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F242" t="n">
+        <v>361000</v>
+      </c>
+      <c r="G242" t="n">
+        <v>3.846666666666671</v>
+      </c>
+      <c r="H242" t="n">
+        <v>3.944833333333336</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F243" t="n">
+        <v>147437.2351</v>
+      </c>
+      <c r="G243" t="n">
+        <v>3.845333333333337</v>
+      </c>
+      <c r="H243" t="n">
+        <v>3.942333333333336</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F244" t="n">
+        <v>159621</v>
+      </c>
+      <c r="G244" t="n">
+        <v>3.846666666666671</v>
+      </c>
+      <c r="H244" t="n">
+        <v>3.940500000000002</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D245" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F245" t="n">
+        <v>24307.4358974359</v>
+      </c>
+      <c r="G245" t="n">
+        <v>3.850000000000004</v>
+      </c>
+      <c r="H245" t="n">
+        <v>3.938500000000002</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E246" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F246" t="n">
+        <v>100</v>
+      </c>
+      <c r="G246" t="n">
+        <v>3.85266666666667</v>
+      </c>
+      <c r="H246" t="n">
+        <v>3.936500000000002</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F247" t="n">
+        <v>538425.9095</v>
+      </c>
+      <c r="G247" t="n">
+        <v>3.856000000000004</v>
+      </c>
+      <c r="H247" t="n">
+        <v>3.934500000000002</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E248" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F248" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>3.860666666666671</v>
+      </c>
+      <c r="H248" t="n">
+        <v>3.932833333333335</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E249" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F249" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>3.866000000000004</v>
+      </c>
+      <c r="H249" t="n">
+        <v>3.931166666666668</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest VET.xlsx
+++ b/BackTest/2019-10-26 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N307"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>2735432.805762221</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>2723225.223862221</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="J3" t="n">
         <v>3.86</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K4" t="n">
         <v>3.86</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K5" t="n">
         <v>3.86</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,15 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,110 +636,99 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="J7" t="n">
         <v>3.88</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F8" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2743388.101062221</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.88</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F8" t="n">
-        <v>200</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2743388.101062221</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30401.2853</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2712986.815762221</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>3.88</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30401.2853</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2712986.815762221</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,110 +753,99 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="J10" t="n">
         <v>3.89</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F11" t="n">
+        <v>300</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2712986.815762221</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>3.89</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>3.89</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>3.89</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>3.89</v>
       </c>
-      <c r="F11" t="n">
-        <v>300</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F12" t="n">
+        <v>108340.3602</v>
+      </c>
+      <c r="G12" t="n">
         <v>2712986.815762221</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.89</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="J12" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F12" t="n">
-        <v>108340.3602</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2712986.815762221</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,110 +870,101 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="J13" t="n">
         <v>3.89</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F14" t="n">
+        <v>690</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2712876.815762221</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.89</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16330.7147</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2729207.530462221</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
         <v>3.87</v>
       </c>
-      <c r="C14" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F14" t="n">
-        <v>690</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2712876.815762221</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
         <v>3.89</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F15" t="n">
-        <v>16330.7147</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2729207.530462221</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,110 +989,97 @@
         <v>2729207.530462221</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="J16" t="n">
         <v>3.88</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2729207.530462221</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2730207.530462221</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>3.88</v>
       </c>
-      <c r="C17" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0394</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2729207.530462221</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2730207.530462221</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1174,280 +1106,262 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>3.88</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="C20" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7094.0482</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2724066.543462221</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>127859.3225</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2724066.543462221</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F22" t="n">
+        <v>119974.8545480916</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2844041.398010312</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F23" t="n">
+        <v>108295.6743</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2844041.398010312</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8350</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2835691.398010312</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7390.5148</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2828300.883210312</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>3.88</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>3.88</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>3.88</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E26" t="n">
         <v>3.88</v>
       </c>
-      <c r="F20" t="n">
-        <v>7094.0482</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2724066.543462221</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="F26" t="n">
+        <v>2263.3009</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2830564.184110312</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F21" t="n">
-        <v>127859.3225</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2724066.543462221</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="F22" t="n">
-        <v>119974.8545480916</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2844041.398010312</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F23" t="n">
-        <v>108295.6743</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2844041.398010312</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F24" t="n">
-        <v>8350</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2835691.398010312</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7390.5148</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2828300.883210312</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2263.3009</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2830564.184110312</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1474,16 +1388,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1510,16 +1421,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1544,18 +1452,21 @@
         <v>2726171.785310312</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1580,18 +1491,21 @@
         <v>2744985.456110312</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1616,18 +1530,21 @@
         <v>2744985.456110312</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1652,18 +1569,21 @@
         <v>2489653.400010312</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1688,22 +1608,21 @@
         <v>2489663.400010312</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>3.85</v>
       </c>
-      <c r="K33" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1728,24 +1647,21 @@
         <v>2431022.560510312</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1770,26 +1686,21 @@
         <v>2451022.560510312</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
         <v>3.86</v>
       </c>
-      <c r="K35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1814,26 +1725,21 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
         <v>3.87</v>
       </c>
-      <c r="K36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1858,26 +1764,21 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
         <v>3.88</v>
       </c>
-      <c r="K37" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1902,26 +1803,19 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1946,26 +1840,19 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1990,26 +1877,19 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2034,26 +1914,19 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2078,26 +1951,19 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2122,26 +1988,21 @@
         <v>3253508.867110312</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>3.88</v>
       </c>
-      <c r="K43" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2168,22 +2029,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2208,24 +2064,21 @@
         <v>2912015.135210312</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2250,24 +2103,21 @@
         <v>2957874.735210312</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2292,24 +2142,21 @@
         <v>2921438.034810312</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2334,24 +2181,21 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2376,24 +2220,21 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2418,24 +2259,21 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2460,26 +2298,21 @@
         <v>2953949.034810312</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
         <v>3.9</v>
       </c>
-      <c r="K51" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2504,24 +2337,21 @@
         <v>3034602.034810312</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2546,24 +2376,21 @@
         <v>3034602.034810312</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2588,24 +2415,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2630,24 +2454,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2672,24 +2493,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2714,26 +2532,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L57" t="inlineStr">
+        <v>3.91</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2758,24 +2571,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2800,24 +2610,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2842,24 +2649,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2884,26 +2688,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L61" t="inlineStr">
+        <v>3.91</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2928,26 +2727,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L62" t="inlineStr">
+        <v>3.91</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2972,26 +2766,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L63" t="inlineStr">
+        <v>3.91</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3016,24 +2805,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3058,24 +2844,21 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3100,24 +2883,21 @@
         <v>3116082.422110312</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3142,24 +2922,21 @@
         <v>3465082.422110312</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3184,24 +2961,21 @@
         <v>3465082.422110312</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3228,22 +3002,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3270,22 +3039,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3310,24 +3074,21 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3354,22 +3115,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3396,22 +3152,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3436,24 +3187,21 @@
         <v>3962803.560710312</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3478,24 +3226,21 @@
         <v>3962803.560710312</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3520,24 +3265,21 @@
         <v>4172334.505310312</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3562,24 +3304,21 @@
         <v>4485290.613510313</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3604,24 +3343,21 @@
         <v>4962389.613510313</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>3.97</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3646,24 +3382,21 @@
         <v>7426705.689810312</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3690,22 +3423,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3732,22 +3460,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3772,24 +3495,17 @@
         <v>9794793.700310312</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3816,22 +3532,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3856,24 +3563,15 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3898,24 +3596,15 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3940,24 +3629,15 @@
         <v>9893670.330810312</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3982,24 +3662,15 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4024,24 +3695,15 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4068,22 +3730,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4110,22 +3763,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4152,22 +3796,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4194,22 +3829,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4236,22 +3862,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4276,24 +3893,15 @@
         <v>9938177.898910312</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4318,24 +3926,15 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4360,24 +3959,15 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4402,24 +3992,15 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4444,24 +4025,15 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4486,24 +4058,15 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4528,24 +4091,15 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4570,24 +4124,15 @@
         <v>10208095.95301031</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4612,24 +4157,15 @@
         <v>10590458.95301031</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4654,24 +4190,15 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4696,24 +4223,15 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4738,24 +4256,15 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4780,24 +4289,15 @@
         <v>11250760.95441179</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4822,24 +4322,15 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4864,24 +4355,15 @@
         <v>11258516.51661179</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4906,24 +4388,15 @@
         <v>11706478.07121179</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4948,24 +4421,15 @@
         <v>12445130.25601179</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4990,24 +4454,15 @@
         <v>12675130.25601179</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5032,26 +4487,15 @@
         <v>13133334.73751179</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1.085909090909091</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1.020779220779221</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5076,18 +4520,15 @@
         <v>13029511.14731179</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5112,18 +4553,15 @@
         <v>13040020.45518769</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5148,18 +4586,15 @@
         <v>12651317.68678769</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5184,18 +4619,15 @@
         <v>12132875.99638768</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5220,18 +4652,15 @@
         <v>12132875.99638768</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5256,18 +4685,15 @@
         <v>11602842.62338769</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5294,16 +4720,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5330,16 +4753,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5366,16 +4786,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5402,16 +4819,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5436,18 +4850,15 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5472,18 +4883,15 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5508,18 +4916,15 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5544,18 +4949,15 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5580,18 +4982,15 @@
         <v>12701974.07698769</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5616,18 +5015,15 @@
         <v>12790490.82338769</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5652,18 +5048,15 @@
         <v>12761000.40368769</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5688,18 +5081,15 @@
         <v>12675644.92528769</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5724,18 +5114,15 @@
         <v>12675654.92528769</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5762,16 +5149,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5798,16 +5182,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5832,18 +5213,15 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5868,18 +5246,15 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5904,18 +5279,15 @@
         <v>12771989.10728769</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5940,18 +5312,15 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5976,18 +5345,15 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6014,16 +5380,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6050,16 +5413,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6086,16 +5446,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6122,16 +5479,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6158,16 +5512,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6194,16 +5545,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6230,16 +5578,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6266,16 +5611,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6302,16 +5644,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6336,18 +5675,15 @@
         <v>12472796.08828769</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6374,16 +5710,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6410,16 +5743,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6446,16 +5776,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6482,16 +5809,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6518,16 +5842,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6554,16 +5875,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6590,16 +5908,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6626,16 +5941,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6662,16 +5974,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6698,16 +6007,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6732,18 +6038,15 @@
         <v>12179780.87008769</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6768,18 +6071,15 @@
         <v>12179780.87008769</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6804,18 +6104,15 @@
         <v>12055564.63738769</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6842,16 +6139,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6878,16 +6172,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6914,16 +6205,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6950,16 +6238,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6986,16 +6271,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7022,16 +6304,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7058,16 +6337,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7094,16 +6370,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7128,18 +6401,15 @@
         <v>10913823.65748769</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7164,18 +6434,15 @@
         <v>10936864.16028769</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7200,18 +6467,15 @@
         <v>10936864.16028769</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7236,18 +6500,15 @@
         <v>11074537.91408769</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7272,18 +6533,15 @@
         <v>11320790.20438769</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7308,18 +6566,15 @@
         <v>11316652.31678769</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7344,18 +6599,15 @@
         <v>11376652.31678769</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7380,18 +6632,15 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7416,18 +6665,15 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7452,18 +6698,15 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7488,18 +6731,15 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7524,18 +6764,15 @@
         <v>11207349.59958769</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7560,18 +6797,15 @@
         <v>11207349.59958769</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7596,18 +6830,15 @@
         <v>11157349.59958769</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7632,18 +6863,15 @@
         <v>11941691.07788769</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7668,18 +6896,15 @@
         <v>11941691.07788769</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7704,18 +6929,15 @@
         <v>11957263.04758769</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7740,18 +6962,15 @@
         <v>11841799.37028769</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7776,18 +6995,15 @@
         <v>11841799.37028769</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7812,18 +7028,15 @@
         <v>11841799.37028769</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7848,18 +7061,15 @@
         <v>11841809.37028769</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7884,18 +7094,15 @@
         <v>11789834.37028769</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7922,16 +7129,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7958,16 +7162,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7994,16 +7195,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8030,16 +7228,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8066,16 +7261,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8102,16 +7294,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8138,16 +7327,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8174,16 +7360,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8210,16 +7393,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8246,16 +7426,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8282,16 +7459,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8318,16 +7492,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8354,16 +7525,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8390,16 +7558,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8426,16 +7591,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8462,16 +7624,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8498,16 +7657,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8534,16 +7690,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8570,16 +7723,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8606,16 +7756,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8642,16 +7789,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8678,16 +7822,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8714,16 +7855,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8750,16 +7888,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8786,16 +7921,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8822,16 +7954,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8858,16 +7987,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8894,16 +8020,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8930,16 +8053,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8966,16 +8086,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9002,16 +8119,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9038,16 +8152,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9074,16 +8185,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9110,16 +8218,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9146,16 +8251,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9180,18 +8282,15 @@
         <v>11652758.15928769</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9216,18 +8315,15 @@
         <v>11653948.15928769</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9252,18 +8348,15 @@
         <v>11653958.15928769</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9290,16 +8383,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9326,16 +8416,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9362,16 +8449,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9398,16 +8482,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9434,16 +8515,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9468,18 +8546,15 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9504,18 +8579,15 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9540,18 +8612,15 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9576,18 +8645,15 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9612,18 +8678,15 @@
         <v>11951619.15428769</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9648,18 +8711,15 @@
         <v>11939033.47318769</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9684,18 +8744,15 @@
         <v>11939043.47318769</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9722,16 +8779,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9758,16 +8812,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9794,16 +8845,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9830,16 +8878,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9866,16 +8911,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9902,16 +8944,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9936,18 +8975,15 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9972,18 +9008,15 @@
         <v>11732559.37778769</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10008,18 +9041,15 @@
         <v>11721019.37778769</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10044,18 +9074,15 @@
         <v>11721029.37778769</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10080,18 +9107,15 @@
         <v>11721029.37778769</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10116,18 +9140,15 @@
         <v>11721041.37778769</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10152,18 +9173,15 @@
         <v>11627622.50598769</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10188,18 +9206,15 @@
         <v>11627634.50598769</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10224,18 +9239,15 @@
         <v>11627634.50598769</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10260,18 +9272,15 @@
         <v>11885042.87598769</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10296,18 +9305,15 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10332,18 +9338,15 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10368,18 +9371,15 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10404,18 +9404,15 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10440,18 +9437,15 @@
         <v>11865032.53818769</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10476,18 +9470,15 @@
         <v>11865032.53818769</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10512,18 +9503,15 @@
         <v>11865042.53818769</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10548,18 +9536,15 @@
         <v>11857365.24338769</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10584,18 +9569,15 @@
         <v>11925213.99018769</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10620,18 +9602,15 @@
         <v>11720401.23048769</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10656,18 +9635,15 @@
         <v>11720401.23048769</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10692,18 +9668,15 @@
         <v>11751656.06608769</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10728,18 +9701,15 @@
         <v>11751311.59378769</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10764,18 +9734,15 @@
         <v>11625703.94858769</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10800,18 +9767,15 @@
         <v>11625703.94858769</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10836,18 +9800,15 @@
         <v>11625703.94858769</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10872,18 +9833,15 @@
         <v>11625713.94858769</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10910,16 +9868,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10946,16 +9901,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10982,16 +9934,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11018,16 +9967,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11054,16 +10000,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11090,16 +10033,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11126,16 +10066,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11162,16 +10099,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11198,16 +10132,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11234,16 +10165,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11270,16 +10198,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11306,16 +10231,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11342,16 +10264,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11378,16 +10297,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11414,16 +10330,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11450,16 +10363,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11486,16 +10396,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11522,16 +10429,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11558,16 +10462,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11594,16 +10495,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11630,16 +10528,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11666,16 +10561,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11702,16 +10594,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11738,16 +10627,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11774,16 +10660,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11810,16 +10693,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11846,16 +10726,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11882,16 +10759,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11918,16 +10792,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11954,16 +10825,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11990,16 +10858,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12026,16 +10891,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12062,18 +10924,15 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest VET.xlsx
+++ b/BackTest/2019-10-26 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2735432.805762221</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2723225.223862221</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3.86</v>
@@ -521,7 +521,7 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3.85</v>
@@ -562,7 +562,7 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3.88</v>
@@ -603,10 +603,14 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -636,7 +640,7 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3.88</v>
@@ -644,7 +648,11 @@
       <c r="J7" t="n">
         <v>3.88</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,7 +681,7 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3.91</v>
@@ -714,17 +722,15 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J9" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.91</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -753,15 +759,19 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3.89</v>
       </c>
       <c r="J10" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>3.91</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -790,11 +800,13 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J11" t="n">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -829,7 +841,7 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3.89</v>
@@ -837,11 +849,7 @@
       <c r="J12" t="n">
         <v>3.89</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -870,7 +878,7 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3.89</v>
@@ -878,7 +886,11 @@
       <c r="J13" t="n">
         <v>3.89</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -907,7 +919,7 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3.87</v>
@@ -948,19 +960,15 @@
         <v>2729207.530462221</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3.87</v>
       </c>
       <c r="J15" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.87</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -989,15 +997,19 @@
         <v>2729207.530462221</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>3.87</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1026,11 +1038,13 @@
         <v>2729207.530462221</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J17" t="n">
-        <v>3.88</v>
+        <v>3.87</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1065,17 +1079,15 @@
         <v>2730207.530462221</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J18" t="n">
         <v>3.88</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1104,11 +1116,19 @@
         <v>2731160.591662221</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1140,8 +1160,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1203,10 +1229,14 @@
         <v>2844041.398010312</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1239,8 +1269,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1269,15 +1305,17 @@
         <v>2835691.398010312</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>3.88</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1309,14 +1347,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1345,19 +1377,11 @@
         <v>2830564.184110312</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1452,17 +1476,11 @@
         <v>2726171.785310312</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1491,17 +1509,11 @@
         <v>2744985.456110312</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1530,17 +1542,15 @@
         <v>2744985.456110312</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>3.88</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1569,15 +1579,17 @@
         <v>2489653.400010312</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3.88</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1608,12 +1620,14 @@
         <v>2489663.400010312</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>3.85</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1647,12 +1661,14 @@
         <v>2431022.560510312</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3.89</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1686,12 +1702,14 @@
         <v>2451022.560510312</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3.86</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1725,12 +1743,14 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3.87</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1764,12 +1784,14 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>3.88</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1803,10 +1825,14 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,10 +1866,14 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1877,10 +1907,14 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1914,10 +1948,14 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1951,10 +1989,14 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1988,12 +2030,14 @@
         <v>3253508.867110312</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3.88</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2027,10 +2071,14 @@
         <v>2845205.135210312</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2064,12 +2112,14 @@
         <v>2912015.135210312</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>3.87</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2103,12 +2153,14 @@
         <v>2957874.735210312</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>3.89</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2142,12 +2194,14 @@
         <v>2921438.034810312</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>3.9</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2181,12 +2235,14 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>3.87</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2220,12 +2276,12 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2259,12 +2315,12 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2298,12 +2354,14 @@
         <v>2953949.034810312</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>3.9</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2337,12 +2395,14 @@
         <v>3034602.034810312</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>3.91</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2376,12 +2436,14 @@
         <v>3034602.034810312</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>3.93</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2415,12 +2477,14 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>3.93</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2454,12 +2518,14 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>3.91</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2493,12 +2559,14 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>3.91</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2532,12 +2600,14 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>3.91</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2571,12 +2641,14 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>3.91</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2610,12 +2682,14 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>3.91</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2649,12 +2723,12 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2688,12 +2762,12 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,12 +2801,12 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2766,12 +2840,12 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2805,12 +2879,14 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>3.91</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,12 +2920,12 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2883,12 +2959,14 @@
         <v>3116082.422110312</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>3.91</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,12 +3000,14 @@
         <v>3465082.422110312</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>3.92</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2961,12 +3041,14 @@
         <v>3465082.422110312</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>3.94</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,7 +3085,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3037,10 +3121,14 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,12 +3162,12 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,7 +3204,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3153,7 +3243,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3187,12 +3279,14 @@
         <v>3962803.560710312</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>3.92</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3226,12 +3320,14 @@
         <v>3962803.560710312</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>3.95</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3265,12 +3361,12 @@
         <v>4172334.505310312</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3304,12 +3400,12 @@
         <v>4485290.613510313</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,12 +3439,14 @@
         <v>4962389.613510313</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>3.97</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3382,12 +3480,14 @@
         <v>7426705.689810312</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>3.98</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,7 +3524,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,7 +3563,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3495,16 +3599,20 @@
         <v>9794793.700310312</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3533,8 +3641,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3677,17 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3596,11 +3716,17 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3629,11 +3755,17 @@
         <v>9893670.330810312</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3662,11 +3794,17 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3695,11 +3833,17 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3731,8 +3875,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3764,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3797,8 +3953,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3830,8 +3992,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3863,8 +4031,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3893,11 +4067,17 @@
         <v>9938177.898910312</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3926,11 +4106,17 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3959,11 +4145,17 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3992,11 +4184,17 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4025,11 +4223,17 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4058,11 +4262,17 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4091,11 +4301,17 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4124,11 +4340,17 @@
         <v>10208095.95301031</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4157,11 +4379,17 @@
         <v>10590458.95301031</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4190,11 +4418,17 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4223,11 +4457,17 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4256,11 +4496,17 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4289,11 +4535,17 @@
         <v>11250760.95441179</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4322,11 +4574,17 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4355,11 +4613,17 @@
         <v>11258516.51661179</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4388,11 +4652,17 @@
         <v>11706478.07121179</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4421,11 +4691,17 @@
         <v>12445130.25601179</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4454,11 +4730,17 @@
         <v>12675130.25601179</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4487,11 +4769,17 @@
         <v>13133334.73751179</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4520,11 +4808,17 @@
         <v>13029511.14731179</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4553,11 +4847,17 @@
         <v>13040020.45518769</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4586,11 +4886,17 @@
         <v>12651317.68678769</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4925,17 @@
         <v>12132875.99638768</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4652,11 +4964,17 @@
         <v>12132875.99638768</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4685,11 +5003,17 @@
         <v>11602842.62338769</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4721,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4754,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4787,8 +5123,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4817,15 +5159,23 @@
         <v>12702319.67048769</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>1.087783505154639</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.020779220779221</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4850,7 +5200,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4883,7 +5233,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4916,7 +5266,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4949,7 +5299,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4982,7 +5332,7 @@
         <v>12701974.07698769</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5015,7 +5365,7 @@
         <v>12790490.82338769</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5048,7 +5398,7 @@
         <v>12761000.40368769</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5081,7 +5431,7 @@
         <v>12675644.92528769</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5114,7 +5464,7 @@
         <v>12675654.92528769</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5147,7 +5497,7 @@
         <v>12831664.92528769</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5180,7 +5530,7 @@
         <v>12821198.04358769</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5213,7 +5563,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5246,7 +5596,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5279,7 +5629,7 @@
         <v>12771989.10728769</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5312,7 +5662,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5345,7 +5695,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5378,7 +5728,7 @@
         <v>12592656.35948769</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5411,7 +5761,7 @@
         <v>12496379.26838769</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5675,7 +6025,7 @@
         <v>12472796.08828769</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6005,7 +6355,7 @@
         <v>12125520.65968769</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6038,7 +6388,7 @@
         <v>12179780.87008769</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6071,7 +6421,7 @@
         <v>12179780.87008769</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6104,7 +6454,7 @@
         <v>12055564.63738769</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6137,7 +6487,7 @@
         <v>11817249.12538769</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6170,7 +6520,7 @@
         <v>11243549.12538769</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6203,7 +6553,7 @@
         <v>11270949.12538769</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6236,7 +6586,7 @@
         <v>11321379.04778769</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6269,7 +6619,7 @@
         <v>11321379.04778769</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6302,7 +6652,7 @@
         <v>11296722.02788769</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6335,7 +6685,7 @@
         <v>11296722.02788769</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6368,7 +6718,7 @@
         <v>11296722.02788769</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6401,7 +6751,7 @@
         <v>10913823.65748769</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6434,7 +6784,7 @@
         <v>10936864.16028769</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6467,7 +6817,7 @@
         <v>10936864.16028769</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6500,7 +6850,7 @@
         <v>11074537.91408769</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6533,7 +6883,7 @@
         <v>11320790.20438769</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6566,7 +6916,7 @@
         <v>11316652.31678769</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6599,7 +6949,7 @@
         <v>11376652.31678769</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6632,7 +6982,7 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6665,7 +7015,7 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6698,7 +7048,7 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6731,7 +7081,7 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6764,7 +7114,7 @@
         <v>11207349.59958769</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6797,7 +7147,7 @@
         <v>11207349.59958769</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6830,7 +7180,7 @@
         <v>11157349.59958769</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6863,7 +7213,7 @@
         <v>11941691.07788769</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6896,7 +7246,7 @@
         <v>11941691.07788769</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6929,7 +7279,7 @@
         <v>11957263.04758769</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6962,7 +7312,7 @@
         <v>11841799.37028769</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6995,7 +7345,7 @@
         <v>11841799.37028769</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7028,7 +7378,7 @@
         <v>11841799.37028769</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7061,7 +7411,7 @@
         <v>11841809.37028769</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7094,7 +7444,7 @@
         <v>11789834.37028769</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -8282,7 +8632,7 @@
         <v>11652758.15928769</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8315,7 +8665,7 @@
         <v>11653948.15928769</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8348,7 +8698,7 @@
         <v>11653958.15928769</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8546,7 +8896,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8579,7 +8929,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8612,7 +8962,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8645,7 +8995,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8678,7 +9028,7 @@
         <v>11951619.15428769</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8711,7 +9061,7 @@
         <v>11939033.47318769</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8744,7 +9094,7 @@
         <v>11939043.47318769</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8975,7 +9325,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9008,7 +9358,7 @@
         <v>11732559.37778769</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9041,7 +9391,7 @@
         <v>11721019.37778769</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9074,7 +9424,7 @@
         <v>11721029.37778769</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9107,7 +9457,7 @@
         <v>11721029.37778769</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9140,7 +9490,7 @@
         <v>11721041.37778769</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9173,7 +9523,7 @@
         <v>11627622.50598769</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9206,7 +9556,7 @@
         <v>11627634.50598769</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9239,7 +9589,7 @@
         <v>11627634.50598769</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9272,7 +9622,7 @@
         <v>11885042.87598769</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9305,7 +9655,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9338,7 +9688,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9371,7 +9721,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9404,7 +9754,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9437,7 +9787,7 @@
         <v>11865032.53818769</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9470,7 +9820,7 @@
         <v>11865032.53818769</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9503,7 +9853,7 @@
         <v>11865042.53818769</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9536,7 +9886,7 @@
         <v>11857365.24338769</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9569,7 +9919,7 @@
         <v>11925213.99018769</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9602,7 +9952,7 @@
         <v>11720401.23048769</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9635,7 +9985,7 @@
         <v>11720401.23048769</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9668,7 +10018,7 @@
         <v>11751656.06608769</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9701,7 +10051,7 @@
         <v>11751311.59378769</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9734,7 +10084,7 @@
         <v>11625703.94858769</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9767,7 +10117,7 @@
         <v>11625703.94858769</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9800,7 +10150,7 @@
         <v>11625703.94858769</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9833,7 +10183,7 @@
         <v>11625713.94858769</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10933,6 +11283,6 @@
       <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest VET.xlsx
+++ b/BackTest/2019-10-26 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2735432.805762221</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>2723225.223862221</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.86</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.88</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.91</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,14 +781,10 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.89</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -878,19 +814,11 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,19 +847,11 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -960,14 +880,10 @@
         <v>2729207.530462221</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -997,19 +913,11 @@
         <v>2729207.530462221</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1038,19 +946,11 @@
         <v>2729207.530462221</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1079,14 +979,10 @@
         <v>2730207.530462221</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1116,19 +1012,11 @@
         <v>2731160.591662221</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1160,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1229,14 +1111,10 @@
         <v>2844041.398010312</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1269,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1308,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1542,14 +1408,10 @@
         <v>2744985.456110312</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1579,19 +1441,11 @@
         <v>2489653.400010312</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1620,19 +1474,11 @@
         <v>2489663.400010312</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1507,11 @@
         <v>2431022.560510312</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1708,13 +1546,9 @@
         <v>3.86</v>
       </c>
       <c r="J35" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.86</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1749,11 +1583,11 @@
         <v>3.87</v>
       </c>
       <c r="J36" t="n">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1784,17 +1618,15 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1825,19 +1657,11 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1874,11 +1698,7 @@
       <c r="J39" t="n">
         <v>3.88</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1917,7 +1737,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1958,7 +1778,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1997,11 +1817,7 @@
       <c r="J42" t="n">
         <v>3.88</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2040,7 +1856,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -2276,9 +2092,11 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J49" t="n">
         <v>3.88</v>
       </c>
@@ -2315,9 +2133,11 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J50" t="n">
         <v>3.88</v>
       </c>
@@ -2436,11 +2256,9 @@
         <v>3034602.034810312</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>3.88</v>
       </c>
@@ -2477,11 +2295,9 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>3.88</v>
       </c>
@@ -2723,9 +2539,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J60" t="n">
         <v>3.88</v>
       </c>
@@ -2762,9 +2580,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J61" t="n">
         <v>3.88</v>
       </c>
@@ -2801,9 +2621,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J62" t="n">
         <v>3.88</v>
       </c>
@@ -2840,9 +2662,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J63" t="n">
         <v>3.88</v>
       </c>
@@ -2920,9 +2744,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J65" t="n">
         <v>3.88</v>
       </c>
@@ -3041,11 +2867,9 @@
         <v>3465082.422110312</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>3.88</v>
       </c>
@@ -3082,9 +2906,11 @@
         <v>3454108.248210312</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.94</v>
+      </c>
       <c r="J69" t="n">
         <v>3.88</v>
       </c>
@@ -3162,9 +2988,11 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.93</v>
+      </c>
       <c r="J71" t="n">
         <v>3.88</v>
       </c>
@@ -3320,11 +3148,9 @@
         <v>3962803.560710312</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>3.88</v>
       </c>
@@ -3439,11 +3265,9 @@
         <v>4962389.613510313</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>3.88</v>
       </c>
@@ -3480,21 +3304,19 @@
         <v>7426705.689810312</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.98</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>3.88</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>1.023350515463918</v>
       </c>
       <c r="M79" t="inlineStr"/>
     </row>
@@ -3521,17 +3343,11 @@
         <v>8777667.640210312</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3560,17 +3376,11 @@
         <v>9379080.574469019</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3599,17 +3409,11 @@
         <v>9794793.700310312</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3638,17 +3442,11 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3677,17 +3475,11 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3716,17 +3508,11 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3755,17 +3541,11 @@
         <v>9893670.330810312</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3794,17 +3574,11 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3833,17 +3607,11 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3872,17 +3640,11 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3911,17 +3673,11 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3950,17 +3706,11 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3989,17 +3739,11 @@
         <v>9970108.367410311</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4031,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4067,17 +3805,11 @@
         <v>9938177.898910312</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4109,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4148,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4187,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4226,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4262,17 +3970,11 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4301,17 +4003,11 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4340,17 +4036,11 @@
         <v>10208095.95301031</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4379,17 +4069,11 @@
         <v>10590458.95301031</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4418,17 +4102,11 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4457,17 +4135,11 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4496,17 +4168,11 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4535,17 +4201,11 @@
         <v>11250760.95441179</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4574,17 +4234,11 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4616,14 +4270,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4652,17 +4300,11 @@
         <v>11706478.07121179</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4691,17 +4333,11 @@
         <v>12445130.25601179</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4730,17 +4366,11 @@
         <v>12675130.25601179</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4772,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4811,14 +4435,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4850,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4889,14 +4501,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4928,14 +4534,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4967,14 +4567,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5006,14 +4600,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5045,14 +4633,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5084,14 +4666,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5123,14 +4699,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5159,23 +4729,15 @@
         <v>12702319.67048769</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>1.087783505154639</v>
-      </c>
-      <c r="M122" t="n">
-        <v>1.020779220779221</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5200,7 +4762,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5233,7 +4795,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5266,7 +4828,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5299,7 +4861,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5332,7 +4894,7 @@
         <v>12701974.07698769</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5365,7 +4927,7 @@
         <v>12790490.82338769</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5398,7 +4960,7 @@
         <v>12761000.40368769</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5431,7 +4993,7 @@
         <v>12675644.92528769</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5464,7 +5026,7 @@
         <v>12675654.92528769</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5497,7 +5059,7 @@
         <v>12831664.92528769</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5530,7 +5092,7 @@
         <v>12821198.04358769</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5563,7 +5125,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5596,7 +5158,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5629,7 +5191,7 @@
         <v>12771989.10728769</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5662,7 +5224,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5695,7 +5257,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5728,7 +5290,7 @@
         <v>12592656.35948769</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5761,7 +5323,7 @@
         <v>12496379.26838769</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6355,7 +5917,7 @@
         <v>12125520.65968769</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6388,7 +5950,7 @@
         <v>12179780.87008769</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6421,7 +5983,7 @@
         <v>12179780.87008769</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6454,7 +6016,7 @@
         <v>12055564.63738769</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6487,7 +6049,7 @@
         <v>11817249.12538769</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6520,7 +6082,7 @@
         <v>11243549.12538769</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6553,7 +6115,7 @@
         <v>11270949.12538769</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6586,7 +6148,7 @@
         <v>11321379.04778769</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6619,7 +6181,7 @@
         <v>11321379.04778769</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6652,7 +6214,7 @@
         <v>11296722.02788769</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6685,7 +6247,7 @@
         <v>11296722.02788769</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6718,7 +6280,7 @@
         <v>11296722.02788769</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6751,7 +6313,7 @@
         <v>10913823.65748769</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6784,7 +6346,7 @@
         <v>10936864.16028769</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6817,7 +6379,7 @@
         <v>10936864.16028769</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6850,7 +6412,7 @@
         <v>11074537.91408769</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6883,7 +6445,7 @@
         <v>11320790.20438769</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6916,7 +6478,7 @@
         <v>11316652.31678769</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6949,7 +6511,7 @@
         <v>11376652.31678769</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7015,7 +6577,7 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7048,7 +6610,7 @@
         <v>11376303.19178769</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7213,7 +6775,7 @@
         <v>11941691.07788769</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -8731,7 +8293,7 @@
         <v>11653958.15928769</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8764,7 +8326,7 @@
         <v>11653968.15928769</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8797,7 +8359,7 @@
         <v>11653940.22928769</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8830,7 +8392,7 @@
         <v>11653950.22928769</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8863,7 +8425,7 @@
         <v>12003950.22928769</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8896,7 +8458,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8929,7 +8491,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8962,7 +8524,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8995,7 +8557,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9028,7 +8590,7 @@
         <v>11951619.15428769</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9061,7 +8623,7 @@
         <v>11939033.47318769</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9094,7 +8656,7 @@
         <v>11939043.47318769</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9127,7 +8689,7 @@
         <v>11816513.44428769</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9160,7 +8722,7 @@
         <v>11816523.44428769</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9193,7 +8755,7 @@
         <v>11816523.44428769</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9226,7 +8788,7 @@
         <v>11814139.15428769</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9259,7 +8821,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9292,7 +8854,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9325,7 +8887,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9358,7 +8920,7 @@
         <v>11732559.37778769</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9391,7 +8953,7 @@
         <v>11721019.37778769</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9490,7 +9052,7 @@
         <v>11721041.37778769</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9721,7 +9283,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9754,7 +9316,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -11283,6 +10845,6 @@
       <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest VET.xlsx
+++ b/BackTest/2019-10-26 BackTest VET.xlsx
@@ -451,7 +451,7 @@
         <v>2735432.805762221</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>2723225.223862221</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.91</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.89</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,10 +960,14 @@
         <v>2729207.530462221</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.87</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -916,8 +1000,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1540,14 +1636,10 @@
         <v>2451022.560510312</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1577,19 +1669,11 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1621,14 +1705,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1690,14 +1768,10 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1727,19 +1801,11 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1768,19 +1834,11 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1809,14 +1867,10 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1846,19 +1900,11 @@
         <v>3253508.867110312</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1887,19 +1933,11 @@
         <v>2845205.135210312</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1928,19 +1966,11 @@
         <v>2912015.135210312</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1969,19 +1999,11 @@
         <v>2957874.735210312</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2010,19 +2032,11 @@
         <v>2921438.034810312</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2051,19 +2065,11 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2092,19 +2098,11 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2133,19 +2131,11 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2174,19 +2164,11 @@
         <v>2953949.034810312</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2215,19 +2197,11 @@
         <v>3034602.034810312</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2259,14 +2233,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2298,14 +2266,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2334,19 +2296,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2375,19 +2329,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2416,19 +2362,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2457,19 +2395,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2498,19 +2428,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2539,19 +2461,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2580,19 +2494,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2621,19 +2527,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2662,19 +2560,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2703,19 +2593,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2744,19 +2626,11 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2785,19 +2659,11 @@
         <v>3116082.422110312</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2826,19 +2692,11 @@
         <v>3465082.422110312</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2870,14 +2728,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2906,19 +2758,11 @@
         <v>3454108.248210312</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2947,19 +2791,11 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2988,19 +2824,11 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2860,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2893,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3107,19 +2923,11 @@
         <v>3962803.560710312</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3151,14 +2959,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3190,14 +2992,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3229,14 +3025,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3268,14 +3058,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3304,19 +3088,13 @@
         <v>7426705.689810312</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.023350515463918</v>
+        <v>1</v>
       </c>
       <c r="M79" t="inlineStr"/>
     </row>
@@ -3343,7 +3121,7 @@
         <v>8777667.640210312</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3376,7 +3154,7 @@
         <v>9379080.574469019</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3409,7 +3187,7 @@
         <v>9794793.700310312</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3442,7 +3220,7 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3475,7 +3253,7 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3508,7 +3286,7 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3541,7 +3319,7 @@
         <v>9893670.330810312</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3574,7 +3352,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3607,7 +3385,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3640,7 +3418,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3673,7 +3451,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3706,7 +3484,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3739,7 +3517,7 @@
         <v>9970108.367410311</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3805,7 +3583,7 @@
         <v>9938177.898910312</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3970,7 +3748,7 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4003,7 +3781,7 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4036,7 +3814,7 @@
         <v>10208095.95301031</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4069,7 +3847,7 @@
         <v>10590458.95301031</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4102,7 +3880,7 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4135,7 +3913,7 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4168,7 +3946,7 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4201,7 +3979,7 @@
         <v>11250760.95441179</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4234,7 +4012,7 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4300,7 +4078,7 @@
         <v>11706478.07121179</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4333,7 +4111,7 @@
         <v>12445130.25601179</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4366,7 +4144,7 @@
         <v>12675130.25601179</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4399,7 +4177,7 @@
         <v>13133334.73751179</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4432,7 +4210,7 @@
         <v>13029511.14731179</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4465,7 +4243,7 @@
         <v>13040020.45518769</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4498,7 +4276,7 @@
         <v>12651317.68678769</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4531,7 +4309,7 @@
         <v>12132875.99638768</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4564,7 +4342,7 @@
         <v>12132875.99638768</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4597,7 +4375,7 @@
         <v>11602842.62338769</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4663,7 +4441,7 @@
         <v>12006539.62338769</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4696,7 +4474,7 @@
         <v>13347460.09828768</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4729,7 +4507,7 @@
         <v>12702319.67048769</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4762,7 +4540,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4795,7 +4573,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4828,7 +4606,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4861,7 +4639,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4894,7 +4672,7 @@
         <v>12701974.07698769</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4927,7 +4705,7 @@
         <v>12790490.82338769</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4960,7 +4738,7 @@
         <v>12761000.40368769</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4993,7 +4771,7 @@
         <v>12675644.92528769</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5026,7 +4804,7 @@
         <v>12675654.92528769</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5059,7 +4837,7 @@
         <v>12831664.92528769</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5092,7 +4870,7 @@
         <v>12821198.04358769</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5125,7 +4903,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5158,7 +4936,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5191,7 +4969,7 @@
         <v>12771989.10728769</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5224,7 +5002,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5257,7 +5035,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5290,7 +5068,7 @@
         <v>12592656.35948769</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5323,7 +5101,7 @@
         <v>12496379.26838769</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5356,7 +5134,7 @@
         <v>12496379.26838769</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5389,7 +5167,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5422,7 +5200,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5455,7 +5233,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5488,7 +5266,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5521,7 +5299,7 @@
         <v>12590123.41148769</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5554,7 +5332,7 @@
         <v>12590123.41148769</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5587,7 +5365,7 @@
         <v>12472796.08828769</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5620,7 +5398,7 @@
         <v>12472796.08828769</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5653,7 +5431,7 @@
         <v>12495278.10258768</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5719,7 +5497,7 @@
         <v>12179150.93298769</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5752,7 +5530,7 @@
         <v>12143879.93298769</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -8293,7 +8071,7 @@
         <v>11653958.15928769</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8326,7 +8104,7 @@
         <v>11653968.15928769</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8359,7 +8137,7 @@
         <v>11653940.22928769</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8392,7 +8170,7 @@
         <v>11653950.22928769</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8425,7 +8203,7 @@
         <v>12003950.22928769</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8458,7 +8236,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8491,7 +8269,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8524,7 +8302,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8557,7 +8335,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8590,7 +8368,7 @@
         <v>11951619.15428769</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8623,7 +8401,7 @@
         <v>11939033.47318769</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8656,7 +8434,7 @@
         <v>11939043.47318769</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8689,7 +8467,7 @@
         <v>11816513.44428769</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8722,7 +8500,7 @@
         <v>11816523.44428769</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8755,7 +8533,7 @@
         <v>11816523.44428769</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8788,7 +8566,7 @@
         <v>11814139.15428769</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8821,7 +8599,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8854,7 +8632,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8887,7 +8665,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8920,7 +8698,7 @@
         <v>11732559.37778769</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8953,7 +8731,7 @@
         <v>11721019.37778769</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9052,7 +8830,7 @@
         <v>11721041.37778769</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9283,7 +9061,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9316,7 +9094,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
